--- a/동네.xlsx
+++ b/동네.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AR26"/>
+  <dimension ref="A1:BA26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,212 +441,257 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>2014년 범죄율</t>
+          <t>2014년 범죄 발생 건수</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>2015년 범죄율</t>
+          <t>2015년 범죄 발생 건수</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>2016년 범죄율</t>
+          <t>2016년 범죄 발생 건수</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>2017년 범죄율</t>
+          <t>2017년 범죄 발생 건수</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>2018년 범죄율</t>
+          <t>2018년 범죄 발생 건수</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>2019년 범죄율</t>
+          <t>2019년 범죄 발생 건수</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>2020년 범죄율</t>
+          <t>2020년 범죄 발생 건수</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>2021년 범죄율</t>
+          <t>2021년 범죄 발생 건수</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>2022년 범죄율</t>
+          <t>2022년 범죄 발생 건수</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>2023년 범죄율</t>
+          <t>2023년 범죄 발생 건수</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
+          <t>범죄 발생 빈도</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
           <t>cctv</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>경찰서 개수</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>소방서 개수</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>종합 안전/치안 점수</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>안전 치안 순위</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>평당 월세(만원)</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>평당 전세(만원)</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>평균 매매(만원)</t>
-        </is>
-      </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
+          <t>2401 매매</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>2402 매매</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>2403 매매</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>2404 매매</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>2405 매매</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>2406 매매</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>2407 매매</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>2408 매매</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>2409 매매</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>2410 매매</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>2411 매매</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>2412 매매</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>2501 매매</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>1년전 매매가 차이</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
           <t>버스 이용 비율</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="AJ1" s="1" t="inlineStr">
         <is>
           <t>지하철 이용 비율</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="AK1" s="1" t="inlineStr">
         <is>
           <t>택시 이용 비율</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>노선수</t>
-        </is>
-      </c>
-      <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>따릉이 정류소 개수</t>
-        </is>
-      </c>
-      <c r="Z1" s="1" t="inlineStr">
-        <is>
-          <t>지하철_역_수</t>
-        </is>
-      </c>
-      <c r="AA1" s="1" t="inlineStr">
-        <is>
-          <t>버스_정거장_수</t>
-        </is>
-      </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>많이 이용한 대중교통</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>혼잡도 점수</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>도로 혼잡도</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>혼잡도 순위</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
         <is>
           <t>top1_commercials</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AQ1" s="1" t="inlineStr">
         <is>
           <t>top2_commercials</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AR1" s="1" t="inlineStr">
         <is>
           <t>top3_commercials</t>
         </is>
       </c>
-      <c r="AE1" s="1" t="inlineStr">
+      <c r="AS1" s="1" t="inlineStr">
         <is>
           <t>top4_commercials</t>
         </is>
       </c>
-      <c r="AF1" s="1" t="inlineStr">
+      <c r="AT1" s="1" t="inlineStr">
         <is>
           <t>top5_commercials</t>
         </is>
       </c>
-      <c r="AG1" s="1" t="inlineStr">
+      <c r="AU1" s="1" t="inlineStr">
         <is>
           <t>top1_count</t>
         </is>
       </c>
-      <c r="AH1" s="1" t="inlineStr">
+      <c r="AV1" s="1" t="inlineStr">
         <is>
           <t>top2_count</t>
         </is>
       </c>
-      <c r="AI1" s="1" t="inlineStr">
+      <c r="AW1" s="1" t="inlineStr">
         <is>
           <t>top3_count</t>
         </is>
       </c>
-      <c r="AJ1" s="1" t="inlineStr">
+      <c r="AX1" s="1" t="inlineStr">
         <is>
           <t>top4_count</t>
         </is>
       </c>
-      <c r="AK1" s="1" t="inlineStr">
+      <c r="AY1" s="1" t="inlineStr">
         <is>
           <t>top5_count</t>
         </is>
       </c>
-      <c r="AL1" s="1" t="inlineStr">
-        <is>
-          <t>체육시설 개수</t>
-        </is>
-      </c>
-      <c r="AM1" s="1" t="inlineStr">
-        <is>
-          <t>자치구별 도서관수</t>
-        </is>
-      </c>
-      <c r="AN1" s="1" t="inlineStr">
-        <is>
-          <t>공연/연극/문화센터</t>
-        </is>
-      </c>
-      <c r="AO1" s="1" t="inlineStr">
-        <is>
-          <t>미술관/갤러리</t>
-        </is>
-      </c>
-      <c r="AP1" s="1" t="inlineStr">
-        <is>
-          <t>박물관/과학관/기념관</t>
-        </is>
-      </c>
-      <c r="AQ1" s="1" t="inlineStr">
-        <is>
-          <t>복합문화공간/아트홀/예술센터</t>
-        </is>
-      </c>
-      <c r="AR1" s="1" t="inlineStr">
-        <is>
-          <t>영화관</t>
+      <c r="AZ1" s="1" t="inlineStr">
+        <is>
+          <t>문화체육시설 개수</t>
+        </is>
+      </c>
+      <c r="BA1" s="1" t="inlineStr">
+        <is>
+          <t>문화시설 순위</t>
         </is>
       </c>
     </row>
@@ -689,111 +734,144 @@
       <c r="L2" t="n">
         <v>2981</v>
       </c>
-      <c r="M2" t="n">
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>낮음</t>
+        </is>
+      </c>
+      <c r="N2" t="n">
         <v>2339</v>
       </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
         <v>25</v>
       </c>
-      <c r="O2" t="n">
+      <c r="P2" t="n">
         <v>7</v>
       </c>
-      <c r="P2" t="n">
+      <c r="Q2" t="n">
         <v>0.6952705493597686</v>
       </c>
-      <c r="Q2" t="n">
+      <c r="R2" t="n">
         <v>1</v>
       </c>
-      <c r="R2" t="n">
+      <c r="S2" t="n">
         <v>3.337163180926273</v>
       </c>
-      <c r="S2" t="n">
+      <c r="T2" t="n">
         <v>2753.272601242026</v>
       </c>
-      <c r="T2" t="n">
-        <v>2137.541637947984</v>
-      </c>
       <c r="U2" t="n">
+        <v>3253.385138724726</v>
+      </c>
+      <c r="V2" t="n">
+        <v>2855.881201431744</v>
+      </c>
+      <c r="W2" t="n">
+        <v>3265.720067336637</v>
+      </c>
+      <c r="X2" t="n">
+        <v>3228.879067376062</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>4011.393209552667</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>3906.150738670941</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>4027.478615227252</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>3332.777837542736</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>3480.367592516398</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>3178.405186965127</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>3455.495222617745</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>2861.189053649656</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>2605.190874096458</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>-648.1942646282678</v>
+      </c>
+      <c r="AI2" t="n">
         <v>40.79</v>
       </c>
-      <c r="V2" t="n">
+      <c r="AJ2" t="n">
         <v>53.45</v>
       </c>
-      <c r="W2" t="n">
+      <c r="AK2" t="n">
         <v>5.76</v>
       </c>
-      <c r="X2" t="n">
-        <v>6.656084656084656</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>100</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>15</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>455</v>
-      </c>
-      <c r="AB2" t="inlineStr">
+      <c r="AL2" t="inlineStr">
+        <is>
+          <t>지하철</t>
+        </is>
+      </c>
+      <c r="AM2" t="n">
+        <v>1.3280655871362</v>
+      </c>
+      <c r="AN2" t="inlineStr">
+        <is>
+          <t>혼잡</t>
+        </is>
+      </c>
+      <c r="AO2" t="n">
+        <v>8</v>
+      </c>
+      <c r="AP2" t="inlineStr">
         <is>
           <t>음식점</t>
         </is>
       </c>
-      <c r="AC2" t="inlineStr">
+      <c r="AQ2" t="inlineStr">
         <is>
           <t>기타 소매업</t>
         </is>
       </c>
-      <c r="AD2" t="inlineStr">
+      <c r="AR2" t="inlineStr">
         <is>
           <t>의류 및 액세서리</t>
         </is>
       </c>
-      <c r="AE2" t="inlineStr">
+      <c r="AS2" t="inlineStr">
         <is>
           <t>기타 서비스</t>
         </is>
       </c>
-      <c r="AF2" t="inlineStr">
+      <c r="AT2" t="inlineStr">
         <is>
           <t>전자기기</t>
         </is>
       </c>
-      <c r="AG2" t="n">
+      <c r="AU2" t="n">
         <v>131216</v>
       </c>
-      <c r="AH2" t="n">
+      <c r="AV2" t="n">
         <v>123811</v>
       </c>
-      <c r="AI2" t="n">
+      <c r="AW2" t="n">
         <v>66647</v>
       </c>
-      <c r="AJ2" t="n">
+      <c r="AX2" t="n">
         <v>55597</v>
       </c>
-      <c r="AK2" t="n">
+      <c r="AY2" t="n">
         <v>42657</v>
       </c>
-      <c r="AL2" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>9</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>86</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>387</v>
-      </c>
-      <c r="AP2" t="n">
-        <v>193</v>
-      </c>
-      <c r="AQ2" t="n">
-        <v>123</v>
-      </c>
-      <c r="AR2" t="n">
-        <v>141</v>
+      <c r="AZ2" t="n">
+        <v>980</v>
+      </c>
+      <c r="BA2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -835,111 +913,144 @@
       <c r="L3" t="n">
         <v>3348</v>
       </c>
-      <c r="M3" t="n">
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>낮음</t>
+        </is>
+      </c>
+      <c r="N3" t="n">
         <v>3118</v>
       </c>
-      <c r="N3" t="n">
+      <c r="O3" t="n">
         <v>18</v>
       </c>
-      <c r="O3" t="n">
+      <c r="P3" t="n">
         <v>7</v>
       </c>
-      <c r="P3" t="n">
+      <c r="Q3" t="n">
         <v>0.605768750382788</v>
       </c>
-      <c r="Q3" t="n">
+      <c r="R3" t="n">
         <v>5</v>
       </c>
-      <c r="R3" t="n">
+      <c r="S3" t="n">
         <v>3.858064172372562</v>
       </c>
-      <c r="S3" t="n">
+      <c r="T3" t="n">
         <v>2733.983896747719</v>
       </c>
-      <c r="T3" t="n">
-        <v>2477.750722370509</v>
-      </c>
       <c r="U3" t="n">
+        <v>3983.564410907951</v>
+      </c>
+      <c r="V3" t="n">
+        <v>3696.709390284914</v>
+      </c>
+      <c r="W3" t="n">
+        <v>4128.893125831355</v>
+      </c>
+      <c r="X3" t="n">
+        <v>4653.04005531985</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>4084.886150957596</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>4558.281913944329</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>4555.177773916747</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>4428.558879692024</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>3856.869951792229</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>4401.257954997387</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>4588.326967102244</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>4578.814435515978</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>4180.284514644353</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>196.7201037364025</v>
+      </c>
+      <c r="AI3" t="n">
         <v>26.15</v>
       </c>
-      <c r="V3" t="n">
+      <c r="AJ3" t="n">
         <v>67.36</v>
       </c>
-      <c r="W3" t="n">
+      <c r="AK3" t="n">
         <v>6.49</v>
       </c>
-      <c r="X3" t="n">
-        <v>7.451219512195122</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>90</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>27</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>236</v>
-      </c>
-      <c r="AB3" t="inlineStr">
+      <c r="AL3" t="inlineStr">
+        <is>
+          <t>지하철</t>
+        </is>
+      </c>
+      <c r="AM3" t="n">
+        <v>1.280238983861935</v>
+      </c>
+      <c r="AN3" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
+      <c r="AO3" t="n">
+        <v>9</v>
+      </c>
+      <c r="AP3" t="inlineStr">
         <is>
           <t>의류 및 액세서리</t>
         </is>
       </c>
-      <c r="AC3" t="inlineStr">
+      <c r="AQ3" t="inlineStr">
         <is>
           <t>음식점</t>
         </is>
       </c>
-      <c r="AD3" t="inlineStr">
+      <c r="AR3" t="inlineStr">
         <is>
           <t>기타 소매업</t>
         </is>
       </c>
-      <c r="AE3" t="inlineStr">
+      <c r="AS3" t="inlineStr">
         <is>
           <t>기타 서비스</t>
         </is>
       </c>
-      <c r="AF3" t="inlineStr">
+      <c r="AT3" t="inlineStr">
         <is>
           <t>전자기기</t>
         </is>
       </c>
-      <c r="AG3" t="n">
+      <c r="AU3" t="n">
         <v>372775</v>
       </c>
-      <c r="AH3" t="n">
+      <c r="AV3" t="n">
         <v>119341</v>
       </c>
-      <c r="AI3" t="n">
+      <c r="AW3" t="n">
         <v>73920</v>
       </c>
-      <c r="AJ3" t="n">
+      <c r="AX3" t="n">
         <v>54337</v>
       </c>
-      <c r="AK3" t="n">
+      <c r="AY3" t="n">
         <v>54229</v>
       </c>
-      <c r="AL3" t="n">
-        <v>32</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>8</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>85</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>149</v>
-      </c>
-      <c r="AP3" t="n">
-        <v>190</v>
-      </c>
-      <c r="AQ3" t="n">
-        <v>79</v>
-      </c>
-      <c r="AR3" t="n">
-        <v>67</v>
+      <c r="AZ3" t="n">
+        <v>610</v>
+      </c>
+      <c r="BA3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -981,111 +1092,144 @@
       <c r="L4" t="n">
         <v>3021</v>
       </c>
-      <c r="M4" t="n">
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>낮음</t>
+        </is>
+      </c>
+      <c r="N4" t="n">
         <v>3609</v>
       </c>
-      <c r="N4" t="n">
+      <c r="O4" t="n">
         <v>12</v>
       </c>
-      <c r="O4" t="n">
+      <c r="P4" t="n">
         <v>6</v>
       </c>
-      <c r="P4" t="n">
+      <c r="Q4" t="n">
         <v>0.492331078249396</v>
       </c>
-      <c r="Q4" t="n">
+      <c r="R4" t="n">
         <v>16</v>
       </c>
-      <c r="R4" t="n">
+      <c r="S4" t="n">
         <v>3.128617521950118</v>
       </c>
-      <c r="S4" t="n">
+      <c r="T4" t="n">
         <v>3006.407287045021</v>
       </c>
-      <c r="T4" t="n">
-        <v>3241.873373542984</v>
-      </c>
       <c r="U4" t="n">
+        <v>6196.606826091604</v>
+      </c>
+      <c r="V4" t="n">
+        <v>6349.606919253107</v>
+      </c>
+      <c r="W4" t="n">
+        <v>6532.101236075059</v>
+      </c>
+      <c r="X4" t="n">
+        <v>6204.638348107524</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>6299.861938070108</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>6841.334034152267</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>6724.721853400011</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>7067.634353341692</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>6379.627144376326</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>6465.803548584395</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>6806.047136918925</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>6595.514044589725</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>4917.7746167206</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>-1278.832209371004</v>
+      </c>
+      <c r="AI4" t="n">
         <v>50.45</v>
       </c>
-      <c r="V4" t="n">
+      <c r="AJ4" t="n">
         <v>37.15</v>
       </c>
-      <c r="W4" t="n">
+      <c r="AK4" t="n">
         <v>12.4</v>
       </c>
-      <c r="X4" t="n">
-        <v>4.424242424242424</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>87</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>17</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>383</v>
-      </c>
-      <c r="AB4" t="inlineStr">
+      <c r="AL4" t="inlineStr">
+        <is>
+          <t>버스</t>
+        </is>
+      </c>
+      <c r="AM4" t="n">
+        <v>1.025167653914354</v>
+      </c>
+      <c r="AN4" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
+      <c r="AO4" t="n">
+        <v>16</v>
+      </c>
+      <c r="AP4" t="inlineStr">
         <is>
           <t>음식점</t>
         </is>
       </c>
-      <c r="AC4" t="inlineStr">
+      <c r="AQ4" t="inlineStr">
         <is>
           <t>전자기기</t>
         </is>
       </c>
-      <c r="AD4" t="inlineStr">
+      <c r="AR4" t="inlineStr">
         <is>
           <t>기타 서비스</t>
         </is>
       </c>
-      <c r="AE4" t="inlineStr">
+      <c r="AS4" t="inlineStr">
         <is>
           <t>기타 소매업</t>
         </is>
       </c>
-      <c r="AF4" t="inlineStr">
+      <c r="AT4" t="inlineStr">
         <is>
           <t>의류 및 액세서리</t>
         </is>
       </c>
-      <c r="AG4" t="n">
+      <c r="AU4" t="n">
         <v>101047</v>
       </c>
-      <c r="AH4" t="n">
+      <c r="AV4" t="n">
         <v>98994</v>
       </c>
-      <c r="AI4" t="n">
+      <c r="AW4" t="n">
         <v>39552</v>
       </c>
-      <c r="AJ4" t="n">
+      <c r="AX4" t="n">
         <v>34791</v>
       </c>
-      <c r="AK4" t="n">
+      <c r="AY4" t="n">
         <v>33835</v>
       </c>
-      <c r="AL4" t="n">
-        <v>39</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>4</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>10</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>72</v>
-      </c>
-      <c r="AP4" t="n">
-        <v>48</v>
-      </c>
-      <c r="AQ4" t="n">
-        <v>15</v>
-      </c>
-      <c r="AR4" t="n">
-        <v>8</v>
+      <c r="AZ4" t="n">
+        <v>196</v>
+      </c>
+      <c r="BA4" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="5">
@@ -1127,111 +1271,144 @@
       <c r="L5" t="n">
         <v>2023</v>
       </c>
-      <c r="M5" t="n">
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>낮음</t>
+        </is>
+      </c>
+      <c r="N5" t="n">
         <v>4638</v>
       </c>
-      <c r="N5" t="n">
+      <c r="O5" t="n">
         <v>11</v>
       </c>
-      <c r="O5" t="n">
+      <c r="P5" t="n">
         <v>5</v>
       </c>
-      <c r="P5" t="n">
+      <c r="Q5" t="n">
         <v>0.5094357949956254</v>
       </c>
-      <c r="Q5" t="n">
+      <c r="R5" t="n">
         <v>14</v>
       </c>
-      <c r="R5" t="n">
+      <c r="S5" t="n">
         <v>3.030684947943958</v>
       </c>
-      <c r="S5" t="n">
+      <c r="T5" t="n">
         <v>2980.349216468652</v>
       </c>
-      <c r="T5" t="n">
-        <v>2764.824740157252</v>
-      </c>
       <c r="U5" t="n">
+        <v>5351.580041236903</v>
+      </c>
+      <c r="V5" t="n">
+        <v>5104.283682865889</v>
+      </c>
+      <c r="W5" t="n">
+        <v>5574.77273611571</v>
+      </c>
+      <c r="X5" t="n">
+        <v>5493.368756137686</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>5752.913908950472</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>5948.458139373019</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>6368.931398487657</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>5624.579516992707</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>5876.858070975544</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>5663.667025780237</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>5574.142683431186</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>5353.897585148606</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>5435.374541652223</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>83.79450041532073</v>
+      </c>
+      <c r="AI5" t="n">
         <v>32.84</v>
       </c>
-      <c r="V5" t="n">
+      <c r="AJ5" t="n">
         <v>58.77</v>
       </c>
-      <c r="W5" t="n">
+      <c r="AK5" t="n">
         <v>8.390000000000001</v>
       </c>
-      <c r="X5" t="n">
-        <v>3.663101604278075</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>94</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>19</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>485</v>
-      </c>
-      <c r="AB5" t="inlineStr">
+      <c r="AL5" t="inlineStr">
+        <is>
+          <t>지하철</t>
+        </is>
+      </c>
+      <c r="AM5" t="n">
+        <v>1.114409504023411</v>
+      </c>
+      <c r="AN5" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
+      <c r="AO5" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP5" t="inlineStr">
         <is>
           <t>음식점</t>
         </is>
       </c>
-      <c r="AC5" t="inlineStr">
+      <c r="AQ5" t="inlineStr">
         <is>
           <t>전자기기</t>
         </is>
       </c>
-      <c r="AD5" t="inlineStr">
+      <c r="AR5" t="inlineStr">
         <is>
           <t>식료품</t>
         </is>
       </c>
-      <c r="AE5" t="inlineStr">
+      <c r="AS5" t="inlineStr">
         <is>
           <t>기타 서비스</t>
         </is>
       </c>
-      <c r="AF5" t="inlineStr">
+      <c r="AT5" t="inlineStr">
         <is>
           <t>미용</t>
         </is>
       </c>
-      <c r="AG5" t="n">
+      <c r="AU5" t="n">
         <v>82029</v>
       </c>
-      <c r="AH5" t="n">
+      <c r="AV5" t="n">
         <v>56162</v>
       </c>
-      <c r="AI5" t="n">
+      <c r="AW5" t="n">
         <v>54285</v>
       </c>
-      <c r="AJ5" t="n">
+      <c r="AX5" t="n">
         <v>40106</v>
       </c>
-      <c r="AK5" t="n">
+      <c r="AY5" t="n">
         <v>29678</v>
       </c>
-      <c r="AL5" t="n">
-        <v>113</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>7</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>9</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>8</v>
-      </c>
-      <c r="AP5" t="n">
-        <v>24</v>
-      </c>
-      <c r="AQ5" t="n">
-        <v>7</v>
-      </c>
-      <c r="AR5" t="n">
-        <v>4</v>
+      <c r="AZ5" t="n">
+        <v>172</v>
+      </c>
+      <c r="BA5" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="6">
@@ -1273,111 +1450,144 @@
       <c r="L6" t="n">
         <v>3424</v>
       </c>
-      <c r="M6" t="n">
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
+      <c r="N6" t="n">
         <v>4636</v>
       </c>
-      <c r="N6" t="n">
+      <c r="O6" t="n">
         <v>13</v>
       </c>
-      <c r="O6" t="n">
+      <c r="P6" t="n">
         <v>4</v>
       </c>
-      <c r="P6" t="n">
+      <c r="Q6" t="n">
         <v>0.4039285948852928</v>
       </c>
-      <c r="Q6" t="n">
+      <c r="R6" t="n">
         <v>24</v>
       </c>
-      <c r="R6" t="n">
+      <c r="S6" t="n">
         <v>3.182790795408599</v>
       </c>
-      <c r="S6" t="n">
+      <c r="T6" t="n">
         <v>2734.184676898376</v>
       </c>
-      <c r="T6" t="n">
-        <v>2171.909514305366</v>
-      </c>
       <c r="U6" t="n">
+        <v>3535.336796615832</v>
+      </c>
+      <c r="V6" t="n">
+        <v>3555.629599743942</v>
+      </c>
+      <c r="W6" t="n">
+        <v>3900.25827668696</v>
+      </c>
+      <c r="X6" t="n">
+        <v>3860.879708803444</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>3725.474791172434</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>4346.80549468188</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>4375.931926280256</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>4571.98734455664</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>4106.219688975147</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>4072.69115713256</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>4283.536372404228</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>4179.022446413652</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>4317.487512318497</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>782.1507157026658</v>
+      </c>
+      <c r="AI6" t="n">
         <v>31.19</v>
       </c>
-      <c r="V6" t="n">
+      <c r="AJ6" t="n">
         <v>59.16</v>
       </c>
-      <c r="W6" t="n">
+      <c r="AK6" t="n">
         <v>9.65</v>
       </c>
-      <c r="X6" t="n">
-        <v>5.632183908045977</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>86</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>11</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>331</v>
-      </c>
-      <c r="AB6" t="inlineStr">
+      <c r="AL6" t="inlineStr">
+        <is>
+          <t>지하철</t>
+        </is>
+      </c>
+      <c r="AM6" t="n">
+        <v>1.275053474534063</v>
+      </c>
+      <c r="AN6" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
+      <c r="AO6" t="n">
+        <v>10</v>
+      </c>
+      <c r="AP6" t="inlineStr">
         <is>
           <t>음식점</t>
         </is>
       </c>
-      <c r="AC6" t="inlineStr">
+      <c r="AQ6" t="inlineStr">
         <is>
           <t>전자기기</t>
         </is>
       </c>
-      <c r="AD6" t="inlineStr">
+      <c r="AR6" t="inlineStr">
         <is>
           <t>기타 서비스</t>
         </is>
       </c>
-      <c r="AE6" t="inlineStr">
+      <c r="AS6" t="inlineStr">
         <is>
           <t>미용</t>
         </is>
       </c>
-      <c r="AF6" t="inlineStr">
+      <c r="AT6" t="inlineStr">
         <is>
           <t>기타 소매업</t>
         </is>
       </c>
-      <c r="AG6" t="n">
+      <c r="AU6" t="n">
         <v>95684</v>
       </c>
-      <c r="AH6" t="n">
+      <c r="AV6" t="n">
         <v>60076</v>
       </c>
-      <c r="AI6" t="n">
+      <c r="AW6" t="n">
         <v>47357</v>
       </c>
-      <c r="AJ6" t="n">
+      <c r="AX6" t="n">
         <v>38659</v>
       </c>
-      <c r="AK6" t="n">
+      <c r="AY6" t="n">
         <v>30872</v>
       </c>
-      <c r="AL6" t="n">
-        <v>115</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>8</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>10</v>
-      </c>
-      <c r="AO6" t="n">
-        <v>8</v>
-      </c>
-      <c r="AP6" t="n">
-        <v>15</v>
-      </c>
-      <c r="AQ6" t="n">
-        <v>13</v>
-      </c>
-      <c r="AR6" t="n">
-        <v>7</v>
+      <c r="AZ6" t="n">
+        <v>176</v>
+      </c>
+      <c r="BA6" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="7">
@@ -1419,111 +1629,144 @@
       <c r="L7" t="n">
         <v>2957</v>
       </c>
-      <c r="M7" t="n">
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>낮음</t>
+        </is>
+      </c>
+      <c r="N7" t="n">
         <v>3846</v>
       </c>
-      <c r="N7" t="n">
+      <c r="O7" t="n">
         <v>14</v>
       </c>
-      <c r="O7" t="n">
+      <c r="P7" t="n">
         <v>6</v>
       </c>
-      <c r="P7" t="n">
+      <c r="Q7" t="n">
         <v>0.5349009130406566</v>
       </c>
-      <c r="Q7" t="n">
+      <c r="R7" t="n">
         <v>8</v>
       </c>
-      <c r="R7" t="n">
+      <c r="S7" t="n">
         <v>3.084822408173124</v>
       </c>
-      <c r="S7" t="n">
+      <c r="T7" t="n">
         <v>2195.396788399667</v>
       </c>
-      <c r="T7" t="n">
-        <v>1940.740322000754</v>
-      </c>
       <c r="U7" t="n">
+        <v>3153.063124898054</v>
+      </c>
+      <c r="V7" t="n">
+        <v>3448.2054046379</v>
+      </c>
+      <c r="W7" t="n">
+        <v>3407.208612558141</v>
+      </c>
+      <c r="X7" t="n">
+        <v>3547.324536622325</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>3369.754400042104</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>3775.281429226169</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>3854.120630285456</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>3745.69322535829</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>3659.163091690878</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>3263.926767688412</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>3888.583923932355</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>3609.690072257047</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>3736.269537055688</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>583.2064121576336</v>
+      </c>
+      <c r="AI7" t="n">
         <v>59.01</v>
       </c>
-      <c r="V7" t="n">
+      <c r="AJ7" t="n">
         <v>31.87</v>
       </c>
-      <c r="W7" t="n">
+      <c r="AK7" t="n">
         <v>9.119999999999999</v>
       </c>
-      <c r="X7" t="n">
-        <v>5.550387596899225</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>86</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>15</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>378</v>
-      </c>
-      <c r="AB7" t="inlineStr">
+      <c r="AL7" t="inlineStr">
+        <is>
+          <t>버스</t>
+        </is>
+      </c>
+      <c r="AM7" t="n">
+        <v>0.9123423714885486</v>
+      </c>
+      <c r="AN7" t="inlineStr">
+        <is>
+          <t>원활</t>
+        </is>
+      </c>
+      <c r="AO7" t="n">
+        <v>18</v>
+      </c>
+      <c r="AP7" t="inlineStr">
         <is>
           <t>음식점</t>
         </is>
       </c>
-      <c r="AC7" t="inlineStr">
+      <c r="AQ7" t="inlineStr">
         <is>
           <t>전자기기</t>
         </is>
       </c>
-      <c r="AD7" t="inlineStr">
+      <c r="AR7" t="inlineStr">
         <is>
           <t>식료품</t>
         </is>
       </c>
-      <c r="AE7" t="inlineStr">
+      <c r="AS7" t="inlineStr">
         <is>
           <t>기타 서비스</t>
         </is>
       </c>
-      <c r="AF7" t="inlineStr">
+      <c r="AT7" t="inlineStr">
         <is>
           <t>의류 및 액세서리</t>
         </is>
       </c>
-      <c r="AG7" t="n">
+      <c r="AU7" t="n">
         <v>91577</v>
       </c>
-      <c r="AH7" t="n">
+      <c r="AV7" t="n">
         <v>56759</v>
       </c>
-      <c r="AI7" t="n">
+      <c r="AW7" t="n">
         <v>53822</v>
       </c>
-      <c r="AJ7" t="n">
+      <c r="AX7" t="n">
         <v>41143</v>
       </c>
-      <c r="AK7" t="n">
+      <c r="AY7" t="n">
         <v>36467</v>
       </c>
-      <c r="AL7" t="n">
-        <v>62</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>10</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>2</v>
-      </c>
-      <c r="AO7" t="n">
-        <v>3</v>
-      </c>
-      <c r="AP7" t="n">
-        <v>18</v>
-      </c>
-      <c r="AQ7" t="n">
-        <v>7</v>
-      </c>
-      <c r="AR7" t="n">
-        <v>3</v>
+      <c r="AZ7" t="n">
+        <v>105</v>
+      </c>
+      <c r="BA7" t="n">
+        <v>23</v>
       </c>
     </row>
     <row r="8">
@@ -1565,111 +1808,144 @@
       <c r="L8" t="n">
         <v>3324</v>
       </c>
-      <c r="M8" t="n">
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>낮음</t>
+        </is>
+      </c>
+      <c r="N8" t="n">
         <v>5392</v>
       </c>
-      <c r="N8" t="n">
+      <c r="O8" t="n">
         <v>10</v>
       </c>
-      <c r="O8" t="n">
+      <c r="P8" t="n">
         <v>5</v>
       </c>
-      <c r="P8" t="n">
+      <c r="Q8" t="n">
         <v>0.4589060011025426</v>
       </c>
-      <c r="Q8" t="n">
+      <c r="R8" t="n">
         <v>20</v>
       </c>
-      <c r="R8" t="n">
+      <c r="S8" t="n">
         <v>2.288717910993575</v>
       </c>
-      <c r="S8" t="n">
+      <c r="T8" t="n">
         <v>1817.791700284491</v>
       </c>
-      <c r="T8" t="n">
-        <v>1572.242676741103</v>
-      </c>
       <c r="U8" t="n">
+        <v>2626.22071590982</v>
+      </c>
+      <c r="V8" t="n">
+        <v>2669.802414469583</v>
+      </c>
+      <c r="W8" t="n">
+        <v>2788.335178779596</v>
+      </c>
+      <c r="X8" t="n">
+        <v>2767.384891357548</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>2832.501359313976</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>2825.060048754076</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>2961.314347721809</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>3032.624169959542</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>2843.829927602077</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>2840.274885926946</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>2870.569599854645</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>2890.166774592996</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>2709.574949140855</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>83.35423323103532</v>
+      </c>
+      <c r="AI8" t="n">
         <v>52.42</v>
       </c>
-      <c r="V8" t="n">
+      <c r="AJ8" t="n">
         <v>37.29</v>
       </c>
-      <c r="W8" t="n">
+      <c r="AK8" t="n">
         <v>10.28</v>
       </c>
-      <c r="X8" t="n">
-        <v>4.952380952380953</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>96</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>15</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>403</v>
-      </c>
-      <c r="AB8" t="inlineStr">
+      <c r="AL8" t="inlineStr">
+        <is>
+          <t>버스</t>
+        </is>
+      </c>
+      <c r="AM8" t="n">
+        <v>1.182546722790827</v>
+      </c>
+      <c r="AN8" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
+      <c r="AO8" t="n">
+        <v>12</v>
+      </c>
+      <c r="AP8" t="inlineStr">
         <is>
           <t>음식점</t>
         </is>
       </c>
-      <c r="AC8" t="inlineStr">
+      <c r="AQ8" t="inlineStr">
         <is>
           <t>전자기기</t>
         </is>
       </c>
-      <c r="AD8" t="inlineStr">
+      <c r="AR8" t="inlineStr">
         <is>
           <t>기타 서비스</t>
         </is>
       </c>
-      <c r="AE8" t="inlineStr">
+      <c r="AS8" t="inlineStr">
         <is>
           <t>미용</t>
         </is>
       </c>
-      <c r="AF8" t="inlineStr">
+      <c r="AT8" t="inlineStr">
         <is>
           <t>식료품</t>
         </is>
       </c>
-      <c r="AG8" t="n">
+      <c r="AU8" t="n">
         <v>79481</v>
       </c>
-      <c r="AH8" t="n">
+      <c r="AV8" t="n">
         <v>48928</v>
       </c>
-      <c r="AI8" t="n">
+      <c r="AW8" t="n">
         <v>39734</v>
       </c>
-      <c r="AJ8" t="n">
+      <c r="AX8" t="n">
         <v>35171</v>
       </c>
-      <c r="AK8" t="n">
+      <c r="AY8" t="n">
         <v>29073</v>
       </c>
-      <c r="AL8" t="n">
-        <v>137</v>
-      </c>
-      <c r="AM8" t="n">
-        <v>6</v>
-      </c>
-      <c r="AN8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO8" t="n">
-        <v>2</v>
-      </c>
-      <c r="AP8" t="n">
-        <v>5</v>
-      </c>
-      <c r="AQ8" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR8" t="n">
-        <v>3</v>
+      <c r="AZ8" t="n">
+        <v>154</v>
+      </c>
+      <c r="BA8" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="9">
@@ -1711,111 +1987,144 @@
       <c r="L9" t="n">
         <v>2411</v>
       </c>
-      <c r="M9" t="n">
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>낮음</t>
+        </is>
+      </c>
+      <c r="N9" t="n">
         <v>4906</v>
       </c>
-      <c r="N9" t="n">
+      <c r="O9" t="n">
         <v>16</v>
       </c>
-      <c r="O9" t="n">
+      <c r="P9" t="n">
         <v>5</v>
       </c>
-      <c r="P9" t="n">
+      <c r="Q9" t="n">
         <v>0.574074687093903</v>
       </c>
-      <c r="Q9" t="n">
+      <c r="R9" t="n">
         <v>6</v>
       </c>
-      <c r="R9" t="n">
+      <c r="S9" t="n">
         <v>2.392961452347369</v>
       </c>
-      <c r="S9" t="n">
+      <c r="T9" t="n">
         <v>2151.044390685659</v>
       </c>
-      <c r="T9" t="n">
-        <v>1821.346998285983</v>
-      </c>
       <c r="U9" t="n">
+        <v>3115.046670137052</v>
+      </c>
+      <c r="V9" t="n">
+        <v>3164.584019048118</v>
+      </c>
+      <c r="W9" t="n">
+        <v>2975.511651413856</v>
+      </c>
+      <c r="X9" t="n">
+        <v>3165.35062007875</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>3164.970493321183</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>3595.663144785184</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>3465.000334848949</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>3324.311749261017</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>3225.421543538311</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>3030.28073761048</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>3008.622474103673</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>3002.433538200678</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>2910.689642018961</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>-204.357028118091</v>
+      </c>
+      <c r="AI9" t="n">
         <v>60.23</v>
       </c>
-      <c r="V9" t="n">
+      <c r="AJ9" t="n">
         <v>33.53</v>
       </c>
-      <c r="W9" t="n">
+      <c r="AK9" t="n">
         <v>6.24</v>
       </c>
-      <c r="X9" t="n">
-        <v>4.73404255319149</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>81</v>
-      </c>
-      <c r="Z9" t="n">
+      <c r="AL9" t="inlineStr">
+        <is>
+          <t>버스</t>
+        </is>
+      </c>
+      <c r="AM9" t="n">
+        <v>1.072127158780638</v>
+      </c>
+      <c r="AN9" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
+      <c r="AO9" t="n">
         <v>14</v>
       </c>
-      <c r="AA9" t="n">
-        <v>669</v>
-      </c>
-      <c r="AB9" t="inlineStr">
+      <c r="AP9" t="inlineStr">
         <is>
           <t>음식점</t>
         </is>
       </c>
-      <c r="AC9" t="inlineStr">
+      <c r="AQ9" t="inlineStr">
         <is>
           <t>전자기기</t>
         </is>
       </c>
-      <c r="AD9" t="inlineStr">
+      <c r="AR9" t="inlineStr">
         <is>
           <t>기타 서비스</t>
         </is>
       </c>
-      <c r="AE9" t="inlineStr">
+      <c r="AS9" t="inlineStr">
         <is>
           <t>미용</t>
         </is>
       </c>
-      <c r="AF9" t="inlineStr">
+      <c r="AT9" t="inlineStr">
         <is>
           <t>의류 및 액세서리</t>
         </is>
       </c>
-      <c r="AG9" t="n">
+      <c r="AU9" t="n">
         <v>85927</v>
       </c>
-      <c r="AH9" t="n">
+      <c r="AV9" t="n">
         <v>52508</v>
       </c>
-      <c r="AI9" t="n">
+      <c r="AW9" t="n">
         <v>43886</v>
       </c>
-      <c r="AJ9" t="n">
+      <c r="AX9" t="n">
         <v>35807</v>
       </c>
-      <c r="AK9" t="n">
+      <c r="AY9" t="n">
         <v>28735</v>
       </c>
-      <c r="AL9" t="n">
-        <v>161</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>13</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>7</v>
-      </c>
-      <c r="AO9" t="n">
-        <v>19</v>
-      </c>
-      <c r="AP9" t="n">
-        <v>25</v>
-      </c>
-      <c r="AQ9" t="n">
-        <v>10</v>
-      </c>
-      <c r="AR9" t="n">
-        <v>16</v>
+      <c r="AZ9" t="n">
+        <v>251</v>
+      </c>
+      <c r="BA9" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="10">
@@ -1857,111 +2166,144 @@
       <c r="L10" t="n">
         <v>2497</v>
       </c>
-      <c r="M10" t="n">
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>낮음</t>
+        </is>
+      </c>
+      <c r="N10" t="n">
         <v>3584</v>
       </c>
-      <c r="N10" t="n">
+      <c r="O10" t="n">
         <v>13</v>
       </c>
-      <c r="O10" t="n">
+      <c r="P10" t="n">
         <v>5</v>
       </c>
-      <c r="P10" t="n">
+      <c r="Q10" t="n">
         <v>0.47055248197751</v>
       </c>
-      <c r="Q10" t="n">
+      <c r="R10" t="n">
         <v>18</v>
       </c>
-      <c r="R10" t="n">
+      <c r="S10" t="n">
         <v>4.054114145532669</v>
       </c>
-      <c r="S10" t="n">
+      <c r="T10" t="n">
         <v>1749.679321202003</v>
       </c>
-      <c r="T10" t="n">
-        <v>1369.552256096431</v>
-      </c>
       <c r="U10" t="n">
+        <v>1928.205588013538</v>
+      </c>
+      <c r="V10" t="n">
+        <v>2009.088519388978</v>
+      </c>
+      <c r="W10" t="n">
+        <v>2153.971673223457</v>
+      </c>
+      <c r="X10" t="n">
+        <v>2078.849846793202</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>2350.297146354446</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>2239.815128754152</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>2421.715804985843</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>2474.937506932952</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>2272.309029711198</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>2334.561454055831</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>2174.649860211985</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>2306.712256417083</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>1836.17226425247</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>-92.03332376106732</v>
+      </c>
+      <c r="AI10" t="n">
         <v>61.47</v>
       </c>
-      <c r="V10" t="n">
+      <c r="AJ10" t="n">
         <v>31.8</v>
       </c>
-      <c r="W10" t="n">
+      <c r="AK10" t="n">
         <v>6.72</v>
       </c>
-      <c r="X10" t="n">
-        <v>4.723076923076923</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>59</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>11</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>508</v>
-      </c>
-      <c r="AB10" t="inlineStr">
+      <c r="AL10" t="inlineStr">
+        <is>
+          <t>버스</t>
+        </is>
+      </c>
+      <c r="AM10" t="n">
+        <v>1.581273472512622</v>
+      </c>
+      <c r="AN10" t="inlineStr">
+        <is>
+          <t>혼잡</t>
+        </is>
+      </c>
+      <c r="AO10" t="n">
+        <v>2</v>
+      </c>
+      <c r="AP10" t="inlineStr">
         <is>
           <t>음식점</t>
         </is>
       </c>
-      <c r="AC10" t="inlineStr">
+      <c r="AQ10" t="inlineStr">
         <is>
           <t>전자기기</t>
         </is>
       </c>
-      <c r="AD10" t="inlineStr">
+      <c r="AR10" t="inlineStr">
         <is>
           <t>기타 서비스</t>
         </is>
       </c>
-      <c r="AE10" t="inlineStr">
+      <c r="AS10" t="inlineStr">
         <is>
           <t>미용</t>
         </is>
       </c>
-      <c r="AF10" t="inlineStr">
+      <c r="AT10" t="inlineStr">
         <is>
           <t>식료품</t>
         </is>
       </c>
-      <c r="AG10" t="n">
+      <c r="AU10" t="n">
         <v>72622</v>
       </c>
-      <c r="AH10" t="n">
+      <c r="AV10" t="n">
         <v>38925</v>
       </c>
-      <c r="AI10" t="n">
+      <c r="AW10" t="n">
         <v>31874</v>
       </c>
-      <c r="AJ10" t="n">
+      <c r="AX10" t="n">
         <v>29663</v>
       </c>
-      <c r="AK10" t="n">
+      <c r="AY10" t="n">
         <v>24240</v>
       </c>
-      <c r="AL10" t="n">
-        <v>148</v>
-      </c>
-      <c r="AM10" t="n">
-        <v>7</v>
-      </c>
-      <c r="AN10" t="n">
-        <v>5</v>
-      </c>
-      <c r="AO10" t="n">
-        <v>3</v>
-      </c>
-      <c r="AP10" t="n">
-        <v>5</v>
-      </c>
-      <c r="AQ10" t="n">
-        <v>4</v>
-      </c>
-      <c r="AR10" t="n">
-        <v>5</v>
+      <c r="AZ10" t="n">
+        <v>177</v>
+      </c>
+      <c r="BA10" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="11">
@@ -2003,111 +2345,144 @@
       <c r="L11" t="n">
         <v>1921</v>
       </c>
-      <c r="M11" t="n">
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>낮음</t>
+        </is>
+      </c>
+      <c r="N11" t="n">
         <v>2808</v>
       </c>
-      <c r="N11" t="n">
+      <c r="O11" t="n">
         <v>10</v>
       </c>
-      <c r="O11" t="n">
+      <c r="P11" t="n">
         <v>5</v>
       </c>
-      <c r="P11" t="n">
+      <c r="Q11" t="n">
         <v>0.4239111826337054</v>
       </c>
-      <c r="Q11" t="n">
+      <c r="R11" t="n">
         <v>22</v>
       </c>
-      <c r="R11" t="n">
+      <c r="S11" t="n">
         <v>1.99883922786802</v>
       </c>
-      <c r="S11" t="n">
+      <c r="T11" t="n">
         <v>1502.869063732143</v>
       </c>
-      <c r="T11" t="n">
-        <v>1331.238401164249</v>
-      </c>
       <c r="U11" t="n">
+        <v>2005.221800792205</v>
+      </c>
+      <c r="V11" t="n">
+        <v>1816.050804495181</v>
+      </c>
+      <c r="W11" t="n">
+        <v>2018.401841688418</v>
+      </c>
+      <c r="X11" t="n">
+        <v>2097.717803326929</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>2011.364313198941</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>2319.47462068504</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>2328.675969380615</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>2388.706691043573</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>2023.487229398394</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>2148.041703892743</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>2074.076919279917</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>2226.251759812713</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>1959.169624093933</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>-46.0521766982713</v>
+      </c>
+      <c r="AI11" t="n">
         <v>54.65</v>
       </c>
-      <c r="V11" t="n">
+      <c r="AJ11" t="n">
         <v>37.2</v>
       </c>
-      <c r="W11" t="n">
+      <c r="AK11" t="n">
         <v>8.15</v>
       </c>
-      <c r="X11" t="n">
-        <v>3.896551724137931</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>75</v>
-      </c>
-      <c r="Z11" t="n">
-        <v>8</v>
-      </c>
-      <c r="AA11" t="n">
-        <v>481</v>
-      </c>
-      <c r="AB11" t="inlineStr">
+      <c r="AL11" t="inlineStr">
+        <is>
+          <t>버스</t>
+        </is>
+      </c>
+      <c r="AM11" t="n">
+        <v>0.8110588539379906</v>
+      </c>
+      <c r="AN11" t="inlineStr">
+        <is>
+          <t>원활</t>
+        </is>
+      </c>
+      <c r="AO11" t="n">
+        <v>20</v>
+      </c>
+      <c r="AP11" t="inlineStr">
         <is>
           <t>음식점</t>
         </is>
       </c>
-      <c r="AC11" t="inlineStr">
+      <c r="AQ11" t="inlineStr">
         <is>
           <t>전자기기</t>
         </is>
       </c>
-      <c r="AD11" t="inlineStr">
+      <c r="AR11" t="inlineStr">
         <is>
           <t>미용</t>
         </is>
       </c>
-      <c r="AE11" t="inlineStr">
+      <c r="AS11" t="inlineStr">
         <is>
           <t>기타 서비스</t>
         </is>
       </c>
-      <c r="AF11" t="inlineStr">
+      <c r="AT11" t="inlineStr">
         <is>
           <t>식료품</t>
         </is>
       </c>
-      <c r="AG11" t="n">
+      <c r="AU11" t="n">
         <v>55722</v>
       </c>
-      <c r="AH11" t="n">
+      <c r="AV11" t="n">
         <v>34526</v>
       </c>
-      <c r="AI11" t="n">
+      <c r="AW11" t="n">
         <v>25678</v>
       </c>
-      <c r="AJ11" t="n">
+      <c r="AX11" t="n">
         <v>25349</v>
       </c>
-      <c r="AK11" t="n">
+      <c r="AY11" t="n">
         <v>21364</v>
       </c>
-      <c r="AL11" t="n">
-        <v>101</v>
-      </c>
-      <c r="AM11" t="n">
-        <v>10</v>
-      </c>
-      <c r="AN11" t="n">
-        <v>2</v>
-      </c>
-      <c r="AO11" t="n">
-        <v>2</v>
-      </c>
-      <c r="AP11" t="n">
-        <v>10</v>
-      </c>
-      <c r="AQ11" t="n">
-        <v>2</v>
-      </c>
-      <c r="AR11" t="n">
-        <v>7</v>
+      <c r="AZ11" t="n">
+        <v>134</v>
+      </c>
+      <c r="BA11" t="n">
+        <v>21</v>
       </c>
     </row>
     <row r="12">
@@ -2149,111 +2524,144 @@
       <c r="L12" t="n">
         <v>3567</v>
       </c>
-      <c r="M12" t="n">
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
+      <c r="N12" t="n">
         <v>4105</v>
       </c>
-      <c r="N12" t="n">
+      <c r="O12" t="n">
         <v>10</v>
       </c>
-      <c r="O12" t="n">
+      <c r="P12" t="n">
         <v>6</v>
       </c>
-      <c r="P12" t="n">
+      <c r="Q12" t="n">
         <v>0.4553504690057289</v>
       </c>
-      <c r="Q12" t="n">
+      <c r="R12" t="n">
         <v>21</v>
       </c>
-      <c r="R12" t="n">
+      <c r="S12" t="n">
         <v>1.993116436339896</v>
       </c>
-      <c r="S12" t="n">
+      <c r="T12" t="n">
         <v>1692.628081925758</v>
       </c>
-      <c r="T12" t="n">
-        <v>1651.399498830106</v>
-      </c>
       <c r="U12" t="n">
+        <v>2855.569839383596</v>
+      </c>
+      <c r="V12" t="n">
+        <v>2914.608942980964</v>
+      </c>
+      <c r="W12" t="n">
+        <v>2969.673165197015</v>
+      </c>
+      <c r="X12" t="n">
+        <v>2923.915901420678</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>2929.187283534512</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>3079.232678299217</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>3135.923640767129</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>3153.283999017084</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>2947.75324235118</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>3019.92170014879</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>3101.284993059377</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>3008.494134712919</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>2908.686984805884</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>53.1171454222881</v>
+      </c>
+      <c r="AI12" t="n">
         <v>42.46</v>
       </c>
-      <c r="V12" t="n">
+      <c r="AJ12" t="n">
         <v>48.66</v>
       </c>
-      <c r="W12" t="n">
+      <c r="AK12" t="n">
         <v>8.890000000000001</v>
       </c>
-      <c r="X12" t="n">
-        <v>4.48974358974359</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>152</v>
-      </c>
-      <c r="Z12" t="n">
-        <v>15</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>661</v>
-      </c>
-      <c r="AB12" t="inlineStr">
+      <c r="AL12" t="inlineStr">
+        <is>
+          <t>지하철</t>
+        </is>
+      </c>
+      <c r="AM12" t="n">
+        <v>0.8824603447256925</v>
+      </c>
+      <c r="AN12" t="inlineStr">
+        <is>
+          <t>원활</t>
+        </is>
+      </c>
+      <c r="AO12" t="n">
+        <v>19</v>
+      </c>
+      <c r="AP12" t="inlineStr">
         <is>
           <t>음식점</t>
         </is>
       </c>
-      <c r="AC12" t="inlineStr">
+      <c r="AQ12" t="inlineStr">
         <is>
           <t>전자기기</t>
         </is>
       </c>
-      <c r="AD12" t="inlineStr">
+      <c r="AR12" t="inlineStr">
         <is>
           <t>미용</t>
         </is>
       </c>
-      <c r="AE12" t="inlineStr">
+      <c r="AS12" t="inlineStr">
         <is>
           <t>학원</t>
         </is>
       </c>
-      <c r="AF12" t="inlineStr">
+      <c r="AT12" t="inlineStr">
         <is>
           <t>기타 서비스</t>
         </is>
       </c>
-      <c r="AG12" t="n">
+      <c r="AU12" t="n">
         <v>79174</v>
       </c>
-      <c r="AH12" t="n">
+      <c r="AV12" t="n">
         <v>53029</v>
       </c>
-      <c r="AI12" t="n">
+      <c r="AW12" t="n">
         <v>40665</v>
       </c>
-      <c r="AJ12" t="n">
+      <c r="AX12" t="n">
         <v>40379</v>
       </c>
-      <c r="AK12" t="n">
+      <c r="AY12" t="n">
         <v>39540</v>
       </c>
-      <c r="AL12" t="n">
-        <v>232</v>
-      </c>
-      <c r="AM12" t="n">
-        <v>10</v>
-      </c>
-      <c r="AN12" t="n">
-        <v>3</v>
-      </c>
-      <c r="AO12" t="n">
-        <v>3</v>
-      </c>
-      <c r="AP12" t="n">
-        <v>17</v>
-      </c>
-      <c r="AQ12" t="n">
-        <v>4</v>
-      </c>
-      <c r="AR12" t="n">
-        <v>7</v>
+      <c r="AZ12" t="n">
+        <v>276</v>
+      </c>
+      <c r="BA12" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="13">
@@ -2295,111 +2703,144 @@
       <c r="L13" t="n">
         <v>3493</v>
       </c>
-      <c r="M13" t="n">
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
+      <c r="N13" t="n">
         <v>5683</v>
       </c>
-      <c r="N13" t="n">
+      <c r="O13" t="n">
         <v>15</v>
       </c>
-      <c r="O13" t="n">
+      <c r="P13" t="n">
         <v>5</v>
       </c>
-      <c r="P13" t="n">
+      <c r="Q13" t="n">
         <v>0.5358084656628814</v>
       </c>
-      <c r="Q13" t="n">
+      <c r="R13" t="n">
         <v>7</v>
       </c>
-      <c r="R13" t="n">
+      <c r="S13" t="n">
         <v>1.977716594702919</v>
       </c>
-      <c r="S13" t="n">
+      <c r="T13" t="n">
         <v>2122.906425925174</v>
       </c>
-      <c r="T13" t="n">
-        <v>1541.487872368732</v>
-      </c>
       <c r="U13" t="n">
+        <v>2697.66129449583</v>
+      </c>
+      <c r="V13" t="n">
+        <v>2535.880346329789</v>
+      </c>
+      <c r="W13" t="n">
+        <v>2686.694136668305</v>
+      </c>
+      <c r="X13" t="n">
+        <v>2745.164333947424</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>2772.605021572608</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>2966.680758180802</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>3096.320385811855</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>2900.825132880535</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>2700.202798938035</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>2621.868759614045</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>2669.19315380012</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>2474.435596065509</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>2652.148048432521</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>-45.513246063309</v>
+      </c>
+      <c r="AI13" t="n">
         <v>52.09</v>
       </c>
-      <c r="V13" t="n">
+      <c r="AJ13" t="n">
         <v>41.04</v>
       </c>
-      <c r="W13" t="n">
+      <c r="AK13" t="n">
         <v>6.86</v>
       </c>
-      <c r="X13" t="n">
-        <v>5.690402476780186</v>
-      </c>
-      <c r="Y13" t="n">
-        <v>97</v>
-      </c>
-      <c r="Z13" t="n">
-        <v>13</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>590</v>
-      </c>
-      <c r="AB13" t="inlineStr">
-        <is>
-          <t>음식점</t>
-        </is>
-      </c>
-      <c r="AC13" t="inlineStr">
-        <is>
-          <t>전자기기</t>
-        </is>
-      </c>
-      <c r="AD13" t="inlineStr">
-        <is>
-          <t>기타 서비스</t>
-        </is>
-      </c>
-      <c r="AE13" t="inlineStr">
-        <is>
-          <t>미용</t>
-        </is>
-      </c>
-      <c r="AF13" t="inlineStr">
-        <is>
-          <t>기타 소매업</t>
-        </is>
-      </c>
-      <c r="AG13" t="n">
-        <v>86630</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>53525</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>50599</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>42302</v>
-      </c>
-      <c r="AK13" t="n">
-        <v>30605</v>
-      </c>
-      <c r="AL13" t="n">
-        <v>58</v>
+      <c r="AL13" t="inlineStr">
+        <is>
+          <t>버스</t>
+        </is>
       </c>
       <c r="AM13" t="n">
-        <v>8</v>
-      </c>
-      <c r="AN13" t="n">
-        <v>4</v>
+        <v>1.548340969136202</v>
+      </c>
+      <c r="AN13" t="inlineStr">
+        <is>
+          <t>혼잡</t>
+        </is>
       </c>
       <c r="AO13" t="n">
         <v>3</v>
       </c>
-      <c r="AP13" t="n">
-        <v>14</v>
-      </c>
-      <c r="AQ13" t="n">
-        <v>6</v>
-      </c>
-      <c r="AR13" t="n">
-        <v>2</v>
+      <c r="AP13" t="inlineStr">
+        <is>
+          <t>음식점</t>
+        </is>
+      </c>
+      <c r="AQ13" t="inlineStr">
+        <is>
+          <t>전자기기</t>
+        </is>
+      </c>
+      <c r="AR13" t="inlineStr">
+        <is>
+          <t>기타 서비스</t>
+        </is>
+      </c>
+      <c r="AS13" t="inlineStr">
+        <is>
+          <t>미용</t>
+        </is>
+      </c>
+      <c r="AT13" t="inlineStr">
+        <is>
+          <t>기타 소매업</t>
+        </is>
+      </c>
+      <c r="AU13" t="n">
+        <v>86630</v>
+      </c>
+      <c r="AV13" t="n">
+        <v>53525</v>
+      </c>
+      <c r="AW13" t="n">
+        <v>50599</v>
+      </c>
+      <c r="AX13" t="n">
+        <v>42302</v>
+      </c>
+      <c r="AY13" t="n">
+        <v>30605</v>
+      </c>
+      <c r="AZ13" t="n">
+        <v>95</v>
+      </c>
+      <c r="BA13" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="14">
@@ -2441,111 +2882,144 @@
       <c r="L14" t="n">
         <v>2385</v>
       </c>
-      <c r="M14" t="n">
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>낮음</t>
+        </is>
+      </c>
+      <c r="N14" t="n">
         <v>4218</v>
       </c>
-      <c r="N14" t="n">
+      <c r="O14" t="n">
         <v>11</v>
       </c>
-      <c r="O14" t="n">
+      <c r="P14" t="n">
         <v>5</v>
       </c>
-      <c r="P14" t="n">
+      <c r="Q14" t="n">
         <v>0.4732830059779161</v>
       </c>
-      <c r="Q14" t="n">
+      <c r="R14" t="n">
         <v>17</v>
       </c>
-      <c r="R14" t="n">
+      <c r="S14" t="n">
         <v>2.226509747439295</v>
       </c>
-      <c r="S14" t="n">
+      <c r="T14" t="n">
         <v>2406.391086677691</v>
       </c>
-      <c r="T14" t="n">
-        <v>1868.859149129854</v>
-      </c>
       <c r="U14" t="n">
+        <v>3195.372405777347</v>
+      </c>
+      <c r="V14" t="n">
+        <v>3383.890721971144</v>
+      </c>
+      <c r="W14" t="n">
+        <v>3833.370442128979</v>
+      </c>
+      <c r="X14" t="n">
+        <v>3292.564102642428</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>3523.361688637331</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>3861.471304482302</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>4030.894358110708</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>3851.795252371422</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>3218.589834822231</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>3400.116554781465</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>3691.850950242636</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>4077.805196262772</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>3891.213893087915</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>695.841487310568</v>
+      </c>
+      <c r="AI14" t="n">
         <v>63.25</v>
       </c>
-      <c r="V14" t="n">
+      <c r="AJ14" t="n">
         <v>29.95</v>
       </c>
-      <c r="W14" t="n">
+      <c r="AK14" t="n">
         <v>6.79</v>
       </c>
-      <c r="X14" t="n">
-        <v>8.184834123222748</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>80</v>
-      </c>
-      <c r="Z14" t="n">
-        <v>8</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>561</v>
-      </c>
-      <c r="AB14" t="inlineStr">
+      <c r="AL14" t="inlineStr">
+        <is>
+          <t>버스</t>
+        </is>
+      </c>
+      <c r="AM14" t="n">
+        <v>1.458027657075761</v>
+      </c>
+      <c r="AN14" t="inlineStr">
+        <is>
+          <t>혼잡</t>
+        </is>
+      </c>
+      <c r="AO14" t="n">
+        <v>5</v>
+      </c>
+      <c r="AP14" t="inlineStr">
         <is>
           <t>음식점</t>
         </is>
       </c>
-      <c r="AC14" t="inlineStr">
+      <c r="AQ14" t="inlineStr">
         <is>
           <t>전자기기</t>
         </is>
       </c>
-      <c r="AD14" t="inlineStr">
+      <c r="AR14" t="inlineStr">
         <is>
           <t>기타 서비스</t>
         </is>
       </c>
-      <c r="AE14" t="inlineStr">
+      <c r="AS14" t="inlineStr">
         <is>
           <t>미용</t>
         </is>
       </c>
-      <c r="AF14" t="inlineStr">
+      <c r="AT14" t="inlineStr">
         <is>
           <t>기타 소매업</t>
         </is>
       </c>
-      <c r="AG14" t="n">
+      <c r="AU14" t="n">
         <v>80678</v>
       </c>
-      <c r="AH14" t="n">
+      <c r="AV14" t="n">
         <v>39492</v>
       </c>
-      <c r="AI14" t="n">
+      <c r="AW14" t="n">
         <v>39349</v>
       </c>
-      <c r="AJ14" t="n">
+      <c r="AX14" t="n">
         <v>27353</v>
       </c>
-      <c r="AK14" t="n">
+      <c r="AY14" t="n">
         <v>25674</v>
       </c>
-      <c r="AL14" t="n">
-        <v>142</v>
-      </c>
-      <c r="AM14" t="n">
-        <v>4</v>
-      </c>
-      <c r="AN14" t="n">
-        <v>12</v>
-      </c>
-      <c r="AO14" t="n">
-        <v>11</v>
-      </c>
-      <c r="AP14" t="n">
-        <v>23</v>
-      </c>
-      <c r="AQ14" t="n">
-        <v>14</v>
-      </c>
-      <c r="AR14" t="n">
-        <v>11</v>
+      <c r="AZ14" t="n">
+        <v>217</v>
+      </c>
+      <c r="BA14" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="15">
@@ -2587,111 +3061,144 @@
       <c r="L15" t="n">
         <v>3834</v>
       </c>
-      <c r="M15" t="n">
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>높음</t>
+        </is>
+      </c>
+      <c r="N15" t="n">
         <v>3809</v>
       </c>
-      <c r="N15" t="n">
+      <c r="O15" t="n">
         <v>12</v>
       </c>
-      <c r="O15" t="n">
+      <c r="P15" t="n">
         <v>7</v>
       </c>
-      <c r="P15" t="n">
+      <c r="Q15" t="n">
         <v>0.5211699390530534</v>
       </c>
-      <c r="Q15" t="n">
+      <c r="R15" t="n">
         <v>11</v>
       </c>
-      <c r="R15" t="n">
+      <c r="S15" t="n">
         <v>3.236106846218838</v>
       </c>
-      <c r="S15" t="n">
+      <c r="T15" t="n">
         <v>2996.241084047894</v>
       </c>
-      <c r="T15" t="n">
-        <v>2455.946308141922</v>
-      </c>
       <c r="U15" t="n">
+        <v>4136.226530370121</v>
+      </c>
+      <c r="V15" t="n">
+        <v>3980.397692258023</v>
+      </c>
+      <c r="W15" t="n">
+        <v>4435.45392866974</v>
+      </c>
+      <c r="X15" t="n">
+        <v>4528.256738720182</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>5064.817947662199</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>5101.312982900025</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>4906.672588679938</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>4787.570553511736</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>4519.402137284298</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>4399.512409356345</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>4556.25105114539</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>4466.814294808832</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>4111.010286268567</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>-25.21624410155346</v>
+      </c>
+      <c r="AI15" t="n">
         <v>38.44</v>
       </c>
-      <c r="V15" t="n">
+      <c r="AJ15" t="n">
         <v>53.33</v>
       </c>
-      <c r="W15" t="n">
+      <c r="AK15" t="n">
         <v>8.23</v>
       </c>
-      <c r="X15" t="n">
-        <v>6.234126984126984</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>118</v>
-      </c>
-      <c r="Z15" t="n">
-        <v>26</v>
-      </c>
-      <c r="AA15" t="n">
-        <v>639</v>
-      </c>
-      <c r="AB15" t="inlineStr">
+      <c r="AL15" t="inlineStr">
+        <is>
+          <t>지하철</t>
+        </is>
+      </c>
+      <c r="AM15" t="n">
+        <v>0.4610022366210074</v>
+      </c>
+      <c r="AN15" t="inlineStr">
+        <is>
+          <t>원활</t>
+        </is>
+      </c>
+      <c r="AO15" t="n">
+        <v>25</v>
+      </c>
+      <c r="AP15" t="inlineStr">
         <is>
           <t>음식점</t>
         </is>
       </c>
-      <c r="AC15" t="inlineStr">
+      <c r="AQ15" t="inlineStr">
         <is>
           <t>기타 서비스</t>
         </is>
       </c>
-      <c r="AD15" t="inlineStr">
+      <c r="AR15" t="inlineStr">
         <is>
           <t>전자기기</t>
         </is>
       </c>
-      <c r="AE15" t="inlineStr">
+      <c r="AS15" t="inlineStr">
         <is>
           <t>미용</t>
         </is>
       </c>
-      <c r="AF15" t="inlineStr">
+      <c r="AT15" t="inlineStr">
         <is>
           <t>기타 소매업</t>
         </is>
       </c>
-      <c r="AG15" t="n">
+      <c r="AU15" t="n">
         <v>181175</v>
       </c>
-      <c r="AH15" t="n">
+      <c r="AV15" t="n">
         <v>81469</v>
       </c>
-      <c r="AI15" t="n">
+      <c r="AW15" t="n">
         <v>78133</v>
       </c>
-      <c r="AJ15" t="n">
+      <c r="AX15" t="n">
         <v>58071</v>
       </c>
-      <c r="AK15" t="n">
+      <c r="AY15" t="n">
         <v>48328</v>
       </c>
-      <c r="AL15" t="n">
-        <v>130</v>
-      </c>
-      <c r="AM15" t="n">
-        <v>6</v>
-      </c>
-      <c r="AN15" t="n">
-        <v>58</v>
-      </c>
-      <c r="AO15" t="n">
-        <v>43</v>
-      </c>
-      <c r="AP15" t="n">
-        <v>61</v>
-      </c>
-      <c r="AQ15" t="n">
-        <v>40</v>
-      </c>
-      <c r="AR15" t="n">
-        <v>29</v>
+      <c r="AZ15" t="n">
+        <v>367</v>
+      </c>
+      <c r="BA15" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="16">
@@ -2733,111 +3240,144 @@
       <c r="L16" t="n">
         <v>3019</v>
       </c>
-      <c r="M16" t="n">
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>낮음</t>
+        </is>
+      </c>
+      <c r="N16" t="n">
         <v>4854</v>
       </c>
-      <c r="N16" t="n">
+      <c r="O16" t="n">
         <v>10</v>
       </c>
-      <c r="O16" t="n">
+      <c r="P16" t="n">
         <v>6</v>
       </c>
-      <c r="P16" t="n">
+      <c r="Q16" t="n">
         <v>0.5147854238224062</v>
       </c>
-      <c r="Q16" t="n">
+      <c r="R16" t="n">
         <v>12</v>
       </c>
-      <c r="R16" t="n">
+      <c r="S16" t="n">
         <v>1.384845398354209</v>
       </c>
-      <c r="S16" t="n">
+      <c r="T16" t="n">
         <v>2493.568113794666</v>
       </c>
-      <c r="T16" t="n">
-        <v>1965.816124696391</v>
-      </c>
       <c r="U16" t="n">
+        <v>3347.93688471427</v>
+      </c>
+      <c r="V16" t="n">
+        <v>3548.471099337714</v>
+      </c>
+      <c r="W16" t="n">
+        <v>3556.899105684738</v>
+      </c>
+      <c r="X16" t="n">
+        <v>3528.111830745598</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>3606.332842052918</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>4073.519055822909</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>4226.02811808208</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>4031.162012171847</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>3861.306859362227</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>3609.77056592345</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>4017.17872134614</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>3895.069956865778</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>3756.222098891371</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>408.2852141771018</v>
+      </c>
+      <c r="AI16" t="n">
         <v>55.52</v>
       </c>
-      <c r="V16" t="n">
+      <c r="AJ16" t="n">
         <v>36.5</v>
       </c>
-      <c r="W16" t="n">
+      <c r="AK16" t="n">
         <v>7.98</v>
       </c>
-      <c r="X16" t="n">
-        <v>5.56420233463035</v>
-      </c>
-      <c r="Y16" t="n">
-        <v>111</v>
-      </c>
-      <c r="Z16" t="n">
-        <v>6</v>
-      </c>
-      <c r="AA16" t="n">
-        <v>414</v>
-      </c>
-      <c r="AB16" t="inlineStr">
+      <c r="AL16" t="inlineStr">
+        <is>
+          <t>버스</t>
+        </is>
+      </c>
+      <c r="AM16" t="n">
+        <v>0.4832181080615108</v>
+      </c>
+      <c r="AN16" t="inlineStr">
+        <is>
+          <t>원활</t>
+        </is>
+      </c>
+      <c r="AO16" t="n">
+        <v>24</v>
+      </c>
+      <c r="AP16" t="inlineStr">
         <is>
           <t>음식점</t>
         </is>
       </c>
-      <c r="AC16" t="inlineStr">
+      <c r="AQ16" t="inlineStr">
         <is>
           <t>학원</t>
         </is>
       </c>
-      <c r="AD16" t="inlineStr">
+      <c r="AR16" t="inlineStr">
         <is>
           <t>전자기기</t>
         </is>
       </c>
-      <c r="AE16" t="inlineStr">
+      <c r="AS16" t="inlineStr">
         <is>
           <t>기타 서비스</t>
         </is>
       </c>
-      <c r="AF16" t="inlineStr">
+      <c r="AT16" t="inlineStr">
         <is>
           <t>미용</t>
         </is>
       </c>
-      <c r="AG16" t="n">
+      <c r="AU16" t="n">
         <v>70754</v>
       </c>
-      <c r="AH16" t="n">
+      <c r="AV16" t="n">
         <v>49433</v>
       </c>
-      <c r="AI16" t="n">
+      <c r="AW16" t="n">
         <v>45654</v>
       </c>
-      <c r="AJ16" t="n">
+      <c r="AX16" t="n">
         <v>43541</v>
       </c>
-      <c r="AK16" t="n">
+      <c r="AY16" t="n">
         <v>38970</v>
       </c>
-      <c r="AL16" t="n">
-        <v>162</v>
-      </c>
-      <c r="AM16" t="n">
-        <v>10</v>
-      </c>
-      <c r="AN16" t="n">
-        <v>8</v>
-      </c>
-      <c r="AO16" t="n">
-        <v>11</v>
-      </c>
-      <c r="AP16" t="n">
-        <v>6</v>
-      </c>
-      <c r="AQ16" t="n">
-        <v>5</v>
-      </c>
-      <c r="AR16" t="n">
-        <v>3</v>
+      <c r="AZ16" t="n">
+        <v>205</v>
+      </c>
+      <c r="BA16" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="17">
@@ -2879,111 +3419,144 @@
       <c r="L17" t="n">
         <v>4296</v>
       </c>
-      <c r="M17" t="n">
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>높음</t>
+        </is>
+      </c>
+      <c r="N17" t="n">
         <v>3874</v>
       </c>
-      <c r="N17" t="n">
+      <c r="O17" t="n">
         <v>14</v>
       </c>
-      <c r="O17" t="n">
+      <c r="P17" t="n">
         <v>7</v>
       </c>
-      <c r="P17" t="n">
+      <c r="Q17" t="n">
         <v>0.5294304022933586</v>
       </c>
-      <c r="Q17" t="n">
+      <c r="R17" t="n">
         <v>10</v>
       </c>
-      <c r="R17" t="n">
+      <c r="S17" t="n">
         <v>1.963670637042756</v>
       </c>
-      <c r="S17" t="n">
+      <c r="T17" t="n">
         <v>2212.015093778625</v>
       </c>
-      <c r="T17" t="n">
-        <v>1603.37029386219</v>
-      </c>
       <c r="U17" t="n">
+        <v>2429.401723013032</v>
+      </c>
+      <c r="V17" t="n">
+        <v>2586.69463893193</v>
+      </c>
+      <c r="W17" t="n">
+        <v>2629.406758683084</v>
+      </c>
+      <c r="X17" t="n">
+        <v>2651.146750458093</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>2731.224032628449</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>2820.942948017955</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>2933.743030001204</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>2725.087331656775</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>2675.827911098771</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>2691.615301154445</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>2618.941520144797</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>2610.546510236431</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>2801.404450010898</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>372.0027269978659</v>
+      </c>
+      <c r="AI17" t="n">
         <v>41.39</v>
       </c>
-      <c r="V17" t="n">
+      <c r="AJ17" t="n">
         <v>49.88</v>
       </c>
-      <c r="W17" t="n">
+      <c r="AK17" t="n">
         <v>8.73</v>
       </c>
-      <c r="X17" t="n">
-        <v>5.853731343283582</v>
-      </c>
-      <c r="Y17" t="n">
-        <v>192</v>
-      </c>
-      <c r="Z17" t="n">
-        <v>22</v>
-      </c>
-      <c r="AA17" t="n">
-        <v>646</v>
-      </c>
-      <c r="AB17" t="inlineStr">
+      <c r="AL17" t="inlineStr">
+        <is>
+          <t>지하철</t>
+        </is>
+      </c>
+      <c r="AM17" t="n">
+        <v>1.359590592979426</v>
+      </c>
+      <c r="AN17" t="inlineStr">
+        <is>
+          <t>혼잡</t>
+        </is>
+      </c>
+      <c r="AO17" t="n">
+        <v>6</v>
+      </c>
+      <c r="AP17" t="inlineStr">
         <is>
           <t>음식점</t>
         </is>
       </c>
-      <c r="AC17" t="inlineStr">
+      <c r="AQ17" t="inlineStr">
         <is>
           <t>전자기기</t>
         </is>
       </c>
-      <c r="AD17" t="inlineStr">
+      <c r="AR17" t="inlineStr">
         <is>
           <t>기타 서비스</t>
         </is>
       </c>
-      <c r="AE17" t="inlineStr">
+      <c r="AS17" t="inlineStr">
         <is>
           <t>미용</t>
         </is>
       </c>
-      <c r="AF17" t="inlineStr">
+      <c r="AT17" t="inlineStr">
         <is>
           <t>식료품</t>
         </is>
       </c>
-      <c r="AG17" t="n">
+      <c r="AU17" t="n">
         <v>120978</v>
       </c>
-      <c r="AH17" t="n">
+      <c r="AV17" t="n">
         <v>83163</v>
       </c>
-      <c r="AI17" t="n">
+      <c r="AW17" t="n">
         <v>69555</v>
       </c>
-      <c r="AJ17" t="n">
+      <c r="AX17" t="n">
         <v>59690</v>
       </c>
-      <c r="AK17" t="n">
+      <c r="AY17" t="n">
         <v>51481</v>
       </c>
-      <c r="AL17" t="n">
-        <v>170</v>
-      </c>
-      <c r="AM17" t="n">
+      <c r="AZ17" t="n">
+        <v>240</v>
+      </c>
+      <c r="BA17" t="n">
         <v>9</v>
-      </c>
-      <c r="AN17" t="n">
-        <v>9</v>
-      </c>
-      <c r="AO17" t="n">
-        <v>8</v>
-      </c>
-      <c r="AP17" t="n">
-        <v>24</v>
-      </c>
-      <c r="AQ17" t="n">
-        <v>10</v>
-      </c>
-      <c r="AR17" t="n">
-        <v>10</v>
       </c>
     </row>
     <row r="18">
@@ -3025,111 +3598,144 @@
       <c r="L18" t="n">
         <v>3737</v>
       </c>
-      <c r="M18" t="n">
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
+      <c r="N18" t="n">
         <v>5694</v>
       </c>
-      <c r="N18" t="n">
+      <c r="O18" t="n">
         <v>14</v>
       </c>
-      <c r="O18" t="n">
+      <c r="P18" t="n">
         <v>7</v>
       </c>
-      <c r="P18" t="n">
+      <c r="Q18" t="n">
         <v>0.6339618257759918</v>
       </c>
-      <c r="Q18" t="n">
+      <c r="R18" t="n">
         <v>4</v>
       </c>
-      <c r="R18" t="n">
+      <c r="S18" t="n">
         <v>1.839101772944433</v>
       </c>
-      <c r="S18" t="n">
+      <c r="T18" t="n">
         <v>1887.823155409016</v>
       </c>
-      <c r="T18" t="n">
-        <v>1603.37029386219</v>
-      </c>
       <c r="U18" t="n">
+        <v>2429.401723013032</v>
+      </c>
+      <c r="V18" t="n">
+        <v>2586.69463893193</v>
+      </c>
+      <c r="W18" t="n">
+        <v>2629.406758683084</v>
+      </c>
+      <c r="X18" t="n">
+        <v>2651.146750458093</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>2731.224032628449</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>2820.942948017955</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>2933.743030001204</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>2725.087331656775</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>2675.827911098771</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>2691.615301154445</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>2618.941520144797</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>2610.546510236431</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>2801.404450010898</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>372.0027269978659</v>
+      </c>
+      <c r="AI18" t="n">
         <v>48.82</v>
       </c>
-      <c r="V18" t="n">
+      <c r="AJ18" t="n">
         <v>45.42</v>
       </c>
-      <c r="W18" t="n">
+      <c r="AK18" t="n">
         <v>5.77</v>
       </c>
-      <c r="X18" t="n">
-        <v>5.228346456692913</v>
-      </c>
-      <c r="Y18" t="n">
-        <v>114</v>
-      </c>
-      <c r="Z18" t="n">
-        <v>13</v>
-      </c>
-      <c r="AA18" t="n">
-        <v>624</v>
-      </c>
-      <c r="AB18" t="inlineStr">
+      <c r="AL18" t="inlineStr">
+        <is>
+          <t>버스</t>
+        </is>
+      </c>
+      <c r="AM18" t="n">
+        <v>0.6507756064253276</v>
+      </c>
+      <c r="AN18" t="inlineStr">
+        <is>
+          <t>원활</t>
+        </is>
+      </c>
+      <c r="AO18" t="n">
+        <v>23</v>
+      </c>
+      <c r="AP18" t="inlineStr">
         <is>
           <t>기타 소매업</t>
         </is>
       </c>
-      <c r="AC18" t="inlineStr">
+      <c r="AQ18" t="inlineStr">
         <is>
           <t>음식점</t>
         </is>
       </c>
-      <c r="AD18" t="inlineStr">
+      <c r="AR18" t="inlineStr">
         <is>
           <t>전자기기</t>
         </is>
       </c>
-      <c r="AE18" t="inlineStr">
+      <c r="AS18" t="inlineStr">
         <is>
           <t>기타 서비스</t>
         </is>
       </c>
-      <c r="AF18" t="inlineStr">
+      <c r="AT18" t="inlineStr">
         <is>
           <t>미용</t>
         </is>
       </c>
-      <c r="AG18" t="n">
+      <c r="AU18" t="n">
         <v>89216</v>
       </c>
-      <c r="AH18" t="n">
+      <c r="AV18" t="n">
         <v>86406</v>
       </c>
-      <c r="AI18" t="n">
+      <c r="AW18" t="n">
         <v>72222</v>
       </c>
-      <c r="AJ18" t="n">
+      <c r="AX18" t="n">
         <v>45564</v>
       </c>
-      <c r="AK18" t="n">
+      <c r="AY18" t="n">
         <v>41758</v>
       </c>
-      <c r="AL18" t="n">
-        <v>166</v>
-      </c>
-      <c r="AM18" t="n">
-        <v>13</v>
-      </c>
-      <c r="AN18" t="n">
-        <v>9</v>
-      </c>
-      <c r="AO18" t="n">
-        <v>1</v>
-      </c>
-      <c r="AP18" t="n">
+      <c r="AZ18" t="n">
+        <v>216</v>
+      </c>
+      <c r="BA18" t="n">
         <v>11</v>
-      </c>
-      <c r="AQ18" t="n">
-        <v>7</v>
-      </c>
-      <c r="AR18" t="n">
-        <v>9</v>
       </c>
     </row>
     <row r="19">
@@ -3171,111 +3777,144 @@
       <c r="L19" t="n">
         <v>2240</v>
       </c>
-      <c r="M19" t="n">
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>낮음</t>
+        </is>
+      </c>
+      <c r="N19" t="n">
         <v>3458</v>
       </c>
-      <c r="N19" t="n">
+      <c r="O19" t="n">
         <v>8</v>
       </c>
-      <c r="O19" t="n">
+      <c r="P19" t="n">
         <v>3</v>
       </c>
-      <c r="P19" t="n">
+      <c r="Q19" t="n">
         <v>0.2800537308226503</v>
       </c>
-      <c r="Q19" t="n">
+      <c r="R19" t="n">
         <v>25</v>
       </c>
-      <c r="R19" t="n">
+      <c r="S19" t="n">
         <v>1.684903975348974</v>
       </c>
-      <c r="S19" t="n">
+      <c r="T19" t="n">
         <v>1792.359538109583</v>
       </c>
-      <c r="T19" t="n">
-        <v>1609.006583566936</v>
-      </c>
       <c r="U19" t="n">
+        <v>2507.405453949431</v>
+      </c>
+      <c r="V19" t="n">
+        <v>3300.176758608166</v>
+      </c>
+      <c r="W19" t="n">
+        <v>2642.774752169175</v>
+      </c>
+      <c r="X19" t="n">
+        <v>2697.346550739816</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>2443.833598893186</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>2479.160737198702</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>2801.105135602956</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>2743.198917391914</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>2367.466013925907</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>2294.82585150182</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>2446.238988550886</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>2236.362593226217</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>2222.85186329919</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>-284.5535906502419</v>
+      </c>
+      <c r="AI19" t="n">
         <v>63.13</v>
       </c>
-      <c r="V19" t="n">
+      <c r="AJ19" t="n">
         <v>29.71</v>
       </c>
-      <c r="W19" t="n">
+      <c r="AK19" t="n">
         <v>7.16</v>
       </c>
-      <c r="X19" t="n">
-        <v>5.428571428571429</v>
-      </c>
-      <c r="Y19" t="n">
-        <v>74</v>
-      </c>
-      <c r="Z19" t="n">
-        <v>4</v>
-      </c>
-      <c r="AA19" t="n">
-        <v>408</v>
-      </c>
-      <c r="AB19" t="inlineStr">
+      <c r="AL19" t="inlineStr">
+        <is>
+          <t>버스</t>
+        </is>
+      </c>
+      <c r="AM19" t="n">
+        <v>1.239929772335304</v>
+      </c>
+      <c r="AN19" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
+      <c r="AO19" t="n">
+        <v>11</v>
+      </c>
+      <c r="AP19" t="inlineStr">
         <is>
           <t>전자기기</t>
         </is>
       </c>
-      <c r="AC19" t="inlineStr">
+      <c r="AQ19" t="inlineStr">
         <is>
           <t>음식점</t>
         </is>
       </c>
-      <c r="AD19" t="inlineStr">
+      <c r="AR19" t="inlineStr">
         <is>
           <t>기타 소매업</t>
         </is>
       </c>
-      <c r="AE19" t="inlineStr">
+      <c r="AS19" t="inlineStr">
         <is>
           <t>기타 서비스</t>
         </is>
       </c>
-      <c r="AF19" t="inlineStr">
+      <c r="AT19" t="inlineStr">
         <is>
           <t>의류 및 액세서리</t>
         </is>
       </c>
-      <c r="AG19" t="n">
+      <c r="AU19" t="n">
         <v>64027</v>
       </c>
-      <c r="AH19" t="n">
+      <c r="AV19" t="n">
         <v>63827</v>
       </c>
-      <c r="AI19" t="n">
+      <c r="AW19" t="n">
         <v>42102</v>
       </c>
-      <c r="AJ19" t="n">
+      <c r="AX19" t="n">
         <v>36721</v>
       </c>
-      <c r="AK19" t="n">
+      <c r="AY19" t="n">
         <v>33071</v>
       </c>
-      <c r="AL19" t="n">
-        <v>83</v>
-      </c>
-      <c r="AM19" t="n">
-        <v>4</v>
-      </c>
-      <c r="AN19" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO19" t="n">
-        <v>3</v>
-      </c>
-      <c r="AP19" t="n">
-        <v>8</v>
-      </c>
-      <c r="AQ19" t="n">
-        <v>7</v>
-      </c>
-      <c r="AR19" t="n">
-        <v>4</v>
+      <c r="AZ19" t="n">
+        <v>113</v>
+      </c>
+      <c r="BA19" t="n">
+        <v>22</v>
       </c>
     </row>
     <row r="20">
@@ -3317,111 +3956,144 @@
       <c r="L20" t="n">
         <v>4418</v>
       </c>
-      <c r="M20" t="n">
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>높음</t>
+        </is>
+      </c>
+      <c r="N20" t="n">
         <v>5133</v>
       </c>
-      <c r="N20" t="n">
+      <c r="O20" t="n">
         <v>13</v>
       </c>
-      <c r="O20" t="n">
+      <c r="P20" t="n">
         <v>6</v>
       </c>
-      <c r="P20" t="n">
+      <c r="Q20" t="n">
         <v>0.4982703893024969</v>
       </c>
-      <c r="Q20" t="n">
+      <c r="R20" t="n">
         <v>15</v>
       </c>
-      <c r="R20" t="n">
+      <c r="S20" t="n">
         <v>2.505941884443519</v>
       </c>
-      <c r="S20" t="n">
+      <c r="T20" t="n">
         <v>2454.601052366756</v>
       </c>
-      <c r="T20" t="n">
-        <v>2215.771970698939</v>
-      </c>
       <c r="U20" t="n">
+        <v>3901.787382206846</v>
+      </c>
+      <c r="V20" t="n">
+        <v>3877.100729706297</v>
+      </c>
+      <c r="W20" t="n">
+        <v>3740.000267955619</v>
+      </c>
+      <c r="X20" t="n">
+        <v>4356.381379131882</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>4401.443393686127</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>4437.368895069444</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>4522.811719224851</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>4212.104105021693</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>5094.608444551699</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>4437.458648778991</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>4477.731955023171</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>4274.502026862475</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>4176.039215967201</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>274.2518337603551</v>
+      </c>
+      <c r="AI20" t="n">
         <v>39.34</v>
       </c>
-      <c r="V20" t="n">
+      <c r="AJ20" t="n">
         <v>51.68</v>
       </c>
-      <c r="W20" t="n">
+      <c r="AK20" t="n">
         <v>8.970000000000001</v>
       </c>
-      <c r="X20" t="n">
-        <v>6.185567010309279</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>167</v>
-      </c>
-      <c r="Z20" t="n">
-        <v>20</v>
-      </c>
-      <c r="AA20" t="n">
-        <v>572</v>
-      </c>
-      <c r="AB20" t="inlineStr">
+      <c r="AL20" t="inlineStr">
+        <is>
+          <t>지하철</t>
+        </is>
+      </c>
+      <c r="AM20" t="n">
+        <v>0.9133419855906486</v>
+      </c>
+      <c r="AN20" t="inlineStr">
+        <is>
+          <t>원활</t>
+        </is>
+      </c>
+      <c r="AO20" t="n">
+        <v>17</v>
+      </c>
+      <c r="AP20" t="inlineStr">
         <is>
           <t>음식점</t>
         </is>
       </c>
-      <c r="AC20" t="inlineStr">
+      <c r="AQ20" t="inlineStr">
         <is>
           <t>전자기기</t>
         </is>
       </c>
-      <c r="AD20" t="inlineStr">
+      <c r="AR20" t="inlineStr">
         <is>
           <t>기타 서비스</t>
         </is>
       </c>
-      <c r="AE20" t="inlineStr">
+      <c r="AS20" t="inlineStr">
         <is>
           <t>기타 소매업</t>
         </is>
       </c>
-      <c r="AF20" t="inlineStr">
+      <c r="AT20" t="inlineStr">
         <is>
           <t>식료품</t>
         </is>
       </c>
-      <c r="AG20" t="n">
+      <c r="AU20" t="n">
         <v>141407</v>
       </c>
-      <c r="AH20" t="n">
+      <c r="AV20" t="n">
         <v>72157</v>
       </c>
-      <c r="AI20" t="n">
+      <c r="AW20" t="n">
         <v>65698</v>
       </c>
-      <c r="AJ20" t="n">
+      <c r="AX20" t="n">
         <v>56023</v>
       </c>
-      <c r="AK20" t="n">
+      <c r="AY20" t="n">
         <v>49118</v>
       </c>
-      <c r="AL20" t="n">
-        <v>115</v>
-      </c>
-      <c r="AM20" t="n">
-        <v>6</v>
-      </c>
-      <c r="AN20" t="n">
-        <v>14</v>
-      </c>
-      <c r="AO20" t="n">
-        <v>11</v>
-      </c>
-      <c r="AP20" t="n">
-        <v>39</v>
-      </c>
-      <c r="AQ20" t="n">
-        <v>16</v>
-      </c>
-      <c r="AR20" t="n">
-        <v>5</v>
+      <c r="AZ20" t="n">
+        <v>206</v>
+      </c>
+      <c r="BA20" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="21">
@@ -3463,111 +4135,144 @@
       <c r="L21" t="n">
         <v>2642</v>
       </c>
-      <c r="M21" t="n">
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>낮음</t>
+        </is>
+      </c>
+      <c r="N21" t="n">
         <v>3664</v>
       </c>
-      <c r="N21" t="n">
+      <c r="O21" t="n">
         <v>10</v>
       </c>
-      <c r="O21" t="n">
+      <c r="P21" t="n">
         <v>5</v>
       </c>
-      <c r="P21" t="n">
+      <c r="Q21" t="n">
         <v>0.4222743858489887</v>
       </c>
-      <c r="Q21" t="n">
+      <c r="R21" t="n">
         <v>23</v>
       </c>
-      <c r="R21" t="n">
+      <c r="S21" t="n">
         <v>2.108254317880755</v>
       </c>
-      <c r="S21" t="n">
+      <c r="T21" t="n">
         <v>2592.676575578783</v>
       </c>
-      <c r="T21" t="n">
-        <v>2260.913943544322</v>
-      </c>
       <c r="U21" t="n">
+        <v>3966.46028120647</v>
+      </c>
+      <c r="V21" t="n">
+        <v>3921.704590279436</v>
+      </c>
+      <c r="W21" t="n">
+        <v>3969.503357030548</v>
+      </c>
+      <c r="X21" t="n">
+        <v>4379.047187374645</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>4127.635407237605</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>4661.940659034724</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>4643.225889952852</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>4425.564812422118</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>4007.902084094816</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>3984.367431013761</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>4317.813998484236</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>4488.137609469215</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>4283.857013944054</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>317.3967327375849</v>
+      </c>
+      <c r="AI21" t="n">
         <v>53.2</v>
       </c>
-      <c r="V21" t="n">
+      <c r="AJ21" t="n">
         <v>41.79</v>
       </c>
-      <c r="W21" t="n">
+      <c r="AK21" t="n">
         <v>5.01</v>
       </c>
-      <c r="X21" t="n">
-        <v>7.312056737588652</v>
-      </c>
-      <c r="Y21" t="n">
-        <v>72</v>
-      </c>
-      <c r="Z21" t="n">
-        <v>17</v>
-      </c>
-      <c r="AA21" t="n">
-        <v>497</v>
-      </c>
-      <c r="AB21" t="inlineStr">
+      <c r="AL21" t="inlineStr">
+        <is>
+          <t>버스</t>
+        </is>
+      </c>
+      <c r="AM21" t="n">
+        <v>1.487299623574102</v>
+      </c>
+      <c r="AN21" t="inlineStr">
+        <is>
+          <t>혼잡</t>
+        </is>
+      </c>
+      <c r="AO21" t="n">
+        <v>4</v>
+      </c>
+      <c r="AP21" t="inlineStr">
         <is>
           <t>음식점</t>
         </is>
       </c>
-      <c r="AC21" t="inlineStr">
+      <c r="AQ21" t="inlineStr">
         <is>
           <t>기타 서비스</t>
         </is>
       </c>
-      <c r="AD21" t="inlineStr">
+      <c r="AR21" t="inlineStr">
         <is>
           <t>전자기기</t>
         </is>
       </c>
-      <c r="AE21" t="inlineStr">
+      <c r="AS21" t="inlineStr">
         <is>
           <t>식료품</t>
         </is>
       </c>
-      <c r="AF21" t="inlineStr">
+      <c r="AT21" t="inlineStr">
         <is>
           <t>미용</t>
         </is>
       </c>
-      <c r="AG21" t="n">
+      <c r="AU21" t="n">
         <v>76430</v>
       </c>
-      <c r="AH21" t="n">
+      <c r="AV21" t="n">
         <v>42382</v>
       </c>
-      <c r="AI21" t="n">
+      <c r="AW21" t="n">
         <v>39261</v>
       </c>
-      <c r="AJ21" t="n">
+      <c r="AX21" t="n">
         <v>39223</v>
       </c>
-      <c r="AK21" t="n">
+      <c r="AY21" t="n">
         <v>30267</v>
       </c>
-      <c r="AL21" t="n">
-        <v>127</v>
-      </c>
-      <c r="AM21" t="n">
-        <v>9</v>
-      </c>
-      <c r="AN21" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO21" t="n">
-        <v>3</v>
-      </c>
-      <c r="AP21" t="n">
-        <v>8</v>
-      </c>
-      <c r="AQ21" t="n">
-        <v>7</v>
-      </c>
-      <c r="AR21" t="n">
-        <v>4</v>
+      <c r="AZ21" t="n">
+        <v>162</v>
+      </c>
+      <c r="BA21" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="22">
@@ -3609,111 +4314,144 @@
       <c r="L22" t="n">
         <v>4769</v>
       </c>
-      <c r="M22" t="n">
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>높음</t>
+        </is>
+      </c>
+      <c r="N22" t="n">
         <v>6614</v>
       </c>
-      <c r="N22" t="n">
+      <c r="O22" t="n">
         <v>12</v>
       </c>
-      <c r="O22" t="n">
+      <c r="P22" t="n">
         <v>5</v>
       </c>
-      <c r="P22" t="n">
+      <c r="Q22" t="n">
         <v>0.4645167513741204</v>
       </c>
-      <c r="Q22" t="n">
+      <c r="R22" t="n">
         <v>19</v>
       </c>
-      <c r="R22" t="n">
+      <c r="S22" t="n">
         <v>3.17164553802731</v>
       </c>
-      <c r="S22" t="n">
+      <c r="T22" t="n">
         <v>2047.155604505032</v>
       </c>
-      <c r="T22" t="n">
-        <v>1666.306286868504</v>
-      </c>
       <c r="U22" t="n">
+        <v>2804.084396684658</v>
+      </c>
+      <c r="V22" t="n">
+        <v>2562.976924750261</v>
+      </c>
+      <c r="W22" t="n">
+        <v>2651.013510519826</v>
+      </c>
+      <c r="X22" t="n">
+        <v>2471.689315182094</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>2630.110162735016</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>2819.845042872431</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>3005.385371382738</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>2892.306750469449</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>2833.385603894751</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>2631.312126974793</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>2569.360698435432</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>2810.200193777154</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>2672.805750924825</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>-131.2786457598336</v>
+      </c>
+      <c r="AI22" t="n">
         <v>49.32</v>
       </c>
-      <c r="V22" t="n">
+      <c r="AJ22" t="n">
         <v>45.39</v>
       </c>
-      <c r="W22" t="n">
+      <c r="AK22" t="n">
         <v>5.3</v>
       </c>
-      <c r="X22" t="n">
-        <v>5.324324324324325</v>
-      </c>
-      <c r="Y22" t="n">
-        <v>74</v>
-      </c>
-      <c r="Z22" t="n">
-        <v>4</v>
-      </c>
-      <c r="AA22" t="n">
-        <v>582</v>
-      </c>
-      <c r="AB22" t="inlineStr">
+      <c r="AL22" t="inlineStr">
+        <is>
+          <t>버스</t>
+        </is>
+      </c>
+      <c r="AM22" t="n">
+        <v>0.7323537256875607</v>
+      </c>
+      <c r="AN22" t="inlineStr">
+        <is>
+          <t>원활</t>
+        </is>
+      </c>
+      <c r="AO22" t="n">
+        <v>21</v>
+      </c>
+      <c r="AP22" t="inlineStr">
         <is>
           <t>음식점</t>
         </is>
       </c>
-      <c r="AC22" t="inlineStr">
+      <c r="AQ22" t="inlineStr">
         <is>
           <t>기타 서비스</t>
         </is>
       </c>
-      <c r="AD22" t="inlineStr">
+      <c r="AR22" t="inlineStr">
         <is>
           <t>전자기기</t>
         </is>
       </c>
-      <c r="AE22" t="inlineStr">
+      <c r="AS22" t="inlineStr">
         <is>
           <t>미용</t>
         </is>
       </c>
-      <c r="AF22" t="inlineStr">
+      <c r="AT22" t="inlineStr">
         <is>
           <t>식료품</t>
         </is>
       </c>
-      <c r="AG22" t="n">
+      <c r="AU22" t="n">
         <v>107412</v>
       </c>
-      <c r="AH22" t="n">
+      <c r="AV22" t="n">
         <v>56187</v>
       </c>
-      <c r="AI22" t="n">
+      <c r="AW22" t="n">
         <v>48622</v>
       </c>
-      <c r="AJ22" t="n">
+      <c r="AX22" t="n">
         <v>40270</v>
       </c>
-      <c r="AK22" t="n">
+      <c r="AY22" t="n">
         <v>30198</v>
       </c>
-      <c r="AL22" t="n">
-        <v>161</v>
-      </c>
-      <c r="AM22" t="n">
-        <v>5</v>
-      </c>
-      <c r="AN22" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO22" t="n">
-        <v>5</v>
-      </c>
-      <c r="AP22" t="n">
-        <v>10</v>
-      </c>
-      <c r="AQ22" t="n">
-        <v>4</v>
-      </c>
-      <c r="AR22" t="n">
-        <v>5</v>
+      <c r="AZ22" t="n">
+        <v>191</v>
+      </c>
+      <c r="BA22" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="23">
@@ -3755,111 +4493,144 @@
       <c r="L23" t="n">
         <v>4522</v>
       </c>
-      <c r="M23" t="n">
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>높음</t>
+        </is>
+      </c>
+      <c r="N23" t="n">
         <v>6036</v>
       </c>
-      <c r="N23" t="n">
+      <c r="O23" t="n">
         <v>17</v>
       </c>
-      <c r="O23" t="n">
+      <c r="P23" t="n">
         <v>7</v>
       </c>
-      <c r="P23" t="n">
+      <c r="Q23" t="n">
         <v>0.6517678921779252</v>
       </c>
-      <c r="Q23" t="n">
+      <c r="R23" t="n">
         <v>3</v>
       </c>
-      <c r="R23" t="n">
+      <c r="S23" t="n">
         <v>3.295860348743839</v>
       </c>
-      <c r="S23" t="n">
+      <c r="T23" t="n">
         <v>4068.578312292615</v>
       </c>
-      <c r="T23" t="n">
-        <v>3527.714662287665</v>
-      </c>
       <c r="U23" t="n">
+        <v>6181.998424519767</v>
+      </c>
+      <c r="V23" t="n">
+        <v>6313.888922345893</v>
+      </c>
+      <c r="W23" t="n">
+        <v>7365.80318309735</v>
+      </c>
+      <c r="X23" t="n">
+        <v>7015.702211926286</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>7815.911391136838</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>8896.528691237756</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>8121.965369882664</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>7801.022646664758</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>7122.110291500296</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>7089.893239147979</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>7024.566416752502</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>8097.782870528576</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>5625.38906677882</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>-556.6093577409474</v>
+      </c>
+      <c r="AI23" t="n">
         <v>38.09</v>
       </c>
-      <c r="V23" t="n">
+      <c r="AJ23" t="n">
         <v>54.48</v>
       </c>
-      <c r="W23" t="n">
+      <c r="AK23" t="n">
         <v>7.43</v>
       </c>
-      <c r="X23" t="n">
-        <v>8.089230769230769</v>
-      </c>
-      <c r="Y23" t="n">
-        <v>147</v>
-      </c>
-      <c r="Z23" t="n">
-        <v>21</v>
-      </c>
-      <c r="AA23" t="n">
-        <v>718</v>
-      </c>
-      <c r="AB23" t="inlineStr">
+      <c r="AL23" t="inlineStr">
+        <is>
+          <t>지하철</t>
+        </is>
+      </c>
+      <c r="AM23" t="n">
+        <v>1.350724268192393</v>
+      </c>
+      <c r="AN23" t="inlineStr">
+        <is>
+          <t>혼잡</t>
+        </is>
+      </c>
+      <c r="AO23" t="n">
+        <v>7</v>
+      </c>
+      <c r="AP23" t="inlineStr">
         <is>
           <t>음식점</t>
         </is>
       </c>
-      <c r="AC23" t="inlineStr">
+      <c r="AQ23" t="inlineStr">
         <is>
           <t>법률 서비스</t>
         </is>
       </c>
-      <c r="AD23" t="inlineStr">
+      <c r="AR23" t="inlineStr">
         <is>
           <t>기타 서비스</t>
         </is>
       </c>
-      <c r="AE23" t="inlineStr">
+      <c r="AS23" t="inlineStr">
         <is>
           <t>전자기기</t>
         </is>
       </c>
-      <c r="AF23" t="inlineStr">
+      <c r="AT23" t="inlineStr">
         <is>
           <t>기타 소매업</t>
         </is>
       </c>
-      <c r="AG23" t="n">
+      <c r="AU23" t="n">
         <v>135421</v>
       </c>
-      <c r="AH23" t="n">
+      <c r="AV23" t="n">
         <v>96491</v>
       </c>
-      <c r="AI23" t="n">
+      <c r="AW23" t="n">
         <v>90465</v>
       </c>
-      <c r="AJ23" t="n">
+      <c r="AX23" t="n">
         <v>86213</v>
       </c>
-      <c r="AK23" t="n">
+      <c r="AY23" t="n">
         <v>76790</v>
       </c>
-      <c r="AL23" t="n">
-        <v>195</v>
-      </c>
-      <c r="AM23" t="n">
-        <v>9</v>
-      </c>
-      <c r="AN23" t="n">
-        <v>23</v>
-      </c>
-      <c r="AO23" t="n">
-        <v>61</v>
-      </c>
-      <c r="AP23" t="n">
-        <v>69</v>
-      </c>
-      <c r="AQ23" t="n">
-        <v>48</v>
-      </c>
-      <c r="AR23" t="n">
-        <v>8</v>
+      <c r="AZ23" t="n">
+        <v>413</v>
+      </c>
+      <c r="BA23" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="24">
@@ -3901,111 +4672,144 @@
       <c r="L24" t="n">
         <v>6763</v>
       </c>
-      <c r="M24" t="n">
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>높음</t>
+        </is>
+      </c>
+      <c r="N24" t="n">
         <v>8352</v>
       </c>
-      <c r="N24" t="n">
+      <c r="O24" t="n">
         <v>19</v>
       </c>
-      <c r="O24" t="n">
+      <c r="P24" t="n">
         <v>7</v>
       </c>
-      <c r="P24" t="n">
+      <c r="Q24" t="n">
         <v>0.6617647058823529</v>
       </c>
-      <c r="Q24" t="n">
+      <c r="R24" t="n">
         <v>2</v>
       </c>
-      <c r="R24" t="n">
+      <c r="S24" t="n">
         <v>4.318409532978373</v>
       </c>
-      <c r="S24" t="n">
+      <c r="T24" t="n">
         <v>3811.914225427473</v>
       </c>
-      <c r="T24" t="n">
-        <v>3923.388870397234</v>
-      </c>
       <c r="U24" t="n">
+        <v>6755.703019067948</v>
+      </c>
+      <c r="V24" t="n">
+        <v>7109.375737003585</v>
+      </c>
+      <c r="W24" t="n">
+        <v>7173.341677842911</v>
+      </c>
+      <c r="X24" t="n">
+        <v>7701.65897554466</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>7532.341612312238</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>8000.763207760909</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>8165.378652085729</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>8073.627648391472</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>7447.9435093805</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>8094.883984888978</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>7799.371371203589</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>7644.235124303389</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>6400.780998953658</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>-354.9220201142898</v>
+      </c>
+      <c r="AI24" t="n">
         <v>35.52</v>
       </c>
-      <c r="V24" t="n">
+      <c r="AJ24" t="n">
         <v>53.02</v>
       </c>
-      <c r="W24" t="n">
+      <c r="AK24" t="n">
         <v>11.46</v>
       </c>
-      <c r="X24" t="n">
-        <v>6.106132075471698</v>
-      </c>
-      <c r="Y24" t="n">
-        <v>176</v>
-      </c>
-      <c r="Z24" t="n">
-        <v>31</v>
-      </c>
-      <c r="AA24" t="n">
-        <v>688</v>
-      </c>
-      <c r="AB24" t="inlineStr">
+      <c r="AL24" t="inlineStr">
+        <is>
+          <t>지하철</t>
+        </is>
+      </c>
+      <c r="AM24" t="n">
+        <v>1.733714035346041</v>
+      </c>
+      <c r="AN24" t="inlineStr">
+        <is>
+          <t>혼잡</t>
+        </is>
+      </c>
+      <c r="AO24" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP24" t="inlineStr">
         <is>
           <t>음식점</t>
         </is>
       </c>
-      <c r="AC24" t="inlineStr">
+      <c r="AQ24" t="inlineStr">
         <is>
           <t>기타 서비스</t>
         </is>
       </c>
-      <c r="AD24" t="inlineStr">
+      <c r="AR24" t="inlineStr">
         <is>
           <t>미용</t>
         </is>
       </c>
-      <c r="AE24" t="inlineStr">
+      <c r="AS24" t="inlineStr">
         <is>
           <t>전자기기</t>
         </is>
       </c>
-      <c r="AF24" t="inlineStr">
+      <c r="AT24" t="inlineStr">
         <is>
           <t>기타 소매업</t>
         </is>
       </c>
-      <c r="AG24" t="n">
+      <c r="AU24" t="n">
         <v>247246</v>
       </c>
-      <c r="AH24" t="n">
+      <c r="AV24" t="n">
         <v>170195</v>
       </c>
-      <c r="AI24" t="n">
+      <c r="AW24" t="n">
         <v>130097</v>
       </c>
-      <c r="AJ24" t="n">
+      <c r="AX24" t="n">
         <v>118059</v>
       </c>
-      <c r="AK24" t="n">
+      <c r="AY24" t="n">
         <v>102576</v>
       </c>
-      <c r="AL24" t="n">
-        <v>296</v>
-      </c>
-      <c r="AM24" t="n">
-        <v>17</v>
-      </c>
-      <c r="AN24" t="n">
-        <v>39</v>
-      </c>
-      <c r="AO24" t="n">
-        <v>187</v>
-      </c>
-      <c r="AP24" t="n">
-        <v>265</v>
-      </c>
-      <c r="AQ24" t="n">
-        <v>91</v>
-      </c>
-      <c r="AR24" t="n">
-        <v>20</v>
+      <c r="AZ24" t="n">
+        <v>915</v>
+      </c>
+      <c r="BA24" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="25">
@@ -4047,111 +4851,144 @@
       <c r="L25" t="n">
         <v>5223</v>
       </c>
-      <c r="M25" t="n">
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>높음</t>
+        </is>
+      </c>
+      <c r="N25" t="n">
         <v>4665</v>
       </c>
-      <c r="N25" t="n">
+      <c r="O25" t="n">
         <v>14</v>
       </c>
-      <c r="O25" t="n">
+      <c r="P25" t="n">
         <v>7</v>
       </c>
-      <c r="P25" t="n">
+      <c r="Q25" t="n">
         <v>0.5144550267594318</v>
       </c>
-      <c r="Q25" t="n">
+      <c r="R25" t="n">
         <v>13</v>
       </c>
-      <c r="R25" t="n">
+      <c r="S25" t="n">
         <v>2.251284206898225</v>
       </c>
-      <c r="S25" t="n">
+      <c r="T25" t="n">
         <v>3064.433181111809</v>
       </c>
-      <c r="T25" t="n">
-        <v>2956.745164094811</v>
-      </c>
       <c r="U25" t="n">
+        <v>4937.813772173341</v>
+      </c>
+      <c r="V25" t="n">
+        <v>5349.426284855456</v>
+      </c>
+      <c r="W25" t="n">
+        <v>5194.635550270278</v>
+      </c>
+      <c r="X25" t="n">
+        <v>5213.881115895125</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>5367.423948689667</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>5819.808664003841</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>6011.122109003838</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>5426.372988261464</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>4962.947709176383</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>5120.96356334854</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>5586.447132029656</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>5511.699077175766</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>5321.329412772065</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>383.5156405987236</v>
+      </c>
+      <c r="AI25" t="n">
         <v>36.36</v>
       </c>
-      <c r="V25" t="n">
+      <c r="AJ25" t="n">
         <v>53.91</v>
       </c>
-      <c r="W25" t="n">
+      <c r="AK25" t="n">
         <v>9.73</v>
       </c>
-      <c r="X25" t="n">
-        <v>5.738041002277904</v>
-      </c>
-      <c r="Y25" t="n">
-        <v>218</v>
-      </c>
-      <c r="Z25" t="n">
-        <v>30</v>
-      </c>
-      <c r="AA25" t="n">
-        <v>413</v>
-      </c>
-      <c r="AB25" t="inlineStr">
+      <c r="AL25" t="inlineStr">
+        <is>
+          <t>지하철</t>
+        </is>
+      </c>
+      <c r="AM25" t="n">
+        <v>0.7147805768111561</v>
+      </c>
+      <c r="AN25" t="inlineStr">
+        <is>
+          <t>원활</t>
+        </is>
+      </c>
+      <c r="AO25" t="n">
+        <v>22</v>
+      </c>
+      <c r="AP25" t="inlineStr">
         <is>
           <t>음식점</t>
         </is>
       </c>
-      <c r="AC25" t="inlineStr">
+      <c r="AQ25" t="inlineStr">
         <is>
           <t>식료품</t>
         </is>
       </c>
-      <c r="AD25" t="inlineStr">
+      <c r="AR25" t="inlineStr">
         <is>
           <t>전자기기</t>
         </is>
       </c>
-      <c r="AE25" t="inlineStr">
+      <c r="AS25" t="inlineStr">
         <is>
           <t>기타 서비스</t>
         </is>
       </c>
-      <c r="AF25" t="inlineStr">
+      <c r="AT25" t="inlineStr">
         <is>
           <t>미용</t>
         </is>
       </c>
-      <c r="AG25" t="n">
+      <c r="AU25" t="n">
         <v>150496</v>
       </c>
-      <c r="AH25" t="n">
+      <c r="AV25" t="n">
         <v>119752</v>
       </c>
-      <c r="AI25" t="n">
+      <c r="AW25" t="n">
         <v>92366</v>
       </c>
-      <c r="AJ25" t="n">
+      <c r="AX25" t="n">
         <v>89882</v>
       </c>
-      <c r="AK25" t="n">
+      <c r="AY25" t="n">
         <v>70568</v>
       </c>
-      <c r="AL25" t="n">
-        <v>154</v>
-      </c>
-      <c r="AM25" t="n">
-        <v>12</v>
-      </c>
-      <c r="AN25" t="n">
-        <v>15</v>
-      </c>
-      <c r="AO25" t="n">
-        <v>18</v>
-      </c>
-      <c r="AP25" t="n">
-        <v>36</v>
-      </c>
-      <c r="AQ25" t="n">
-        <v>11</v>
-      </c>
-      <c r="AR25" t="n">
-        <v>9</v>
+      <c r="AZ25" t="n">
+        <v>255</v>
+      </c>
+      <c r="BA25" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="26">
@@ -4193,111 +5030,144 @@
       <c r="L26" t="n">
         <v>3398</v>
       </c>
-      <c r="M26" t="n">
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>낮음</t>
+        </is>
+      </c>
+      <c r="N26" t="n">
         <v>4238</v>
       </c>
-      <c r="N26" t="n">
+      <c r="O26" t="n">
         <v>10</v>
       </c>
-      <c r="O26" t="n">
+      <c r="P26" t="n">
         <v>7</v>
       </c>
-      <c r="P26" t="n">
+      <c r="Q26" t="n">
         <v>0.5321058878548657</v>
       </c>
-      <c r="Q26" t="n">
+      <c r="R26" t="n">
         <v>9</v>
       </c>
-      <c r="R26" t="n">
+      <c r="S26" t="n">
         <v>2.196161552323744</v>
       </c>
-      <c r="S26" t="n">
+      <c r="T26" t="n">
         <v>2481.667777114706</v>
       </c>
-      <c r="T26" t="n">
-        <v>2314.012717093036</v>
-      </c>
       <c r="U26" t="n">
+        <v>3862.299712132924</v>
+      </c>
+      <c r="V26" t="n">
+        <v>4103.267836397531</v>
+      </c>
+      <c r="W26" t="n">
+        <v>3944.481870882631</v>
+      </c>
+      <c r="X26" t="n">
+        <v>4177.452293144827</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>4426.161901389274</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>4884.389545317255</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>4228.02015853232</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>4370.343035848799</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>4032.300223603947</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>3957.367092473022</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>4308.839964987314</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>4289.03518552171</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>3735.731809781556</v>
+      </c>
+      <c r="AH26" t="n">
+        <v>-126.5679023513676</v>
+      </c>
+      <c r="AI26" t="n">
         <v>36.9</v>
       </c>
-      <c r="V26" t="n">
+      <c r="AJ26" t="n">
         <v>52.19</v>
       </c>
-      <c r="W26" t="n">
+      <c r="AK26" t="n">
         <v>10.91</v>
       </c>
-      <c r="X26" t="n">
-        <v>4.400662251655629</v>
-      </c>
-      <c r="Y26" t="n">
-        <v>120</v>
-      </c>
-      <c r="Z26" t="n">
+      <c r="AL26" t="inlineStr">
+        <is>
+          <t>지하철</t>
+        </is>
+      </c>
+      <c r="AM26" t="n">
+        <v>1.032604726550926</v>
+      </c>
+      <c r="AN26" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
+      <c r="AO26" t="n">
         <v>15</v>
       </c>
-      <c r="AA26" t="n">
-        <v>405</v>
-      </c>
-      <c r="AB26" t="inlineStr">
+      <c r="AP26" t="inlineStr">
         <is>
           <t>음식점</t>
         </is>
       </c>
-      <c r="AC26" t="inlineStr">
+      <c r="AQ26" t="inlineStr">
         <is>
           <t>전자기기</t>
         </is>
       </c>
-      <c r="AD26" t="inlineStr">
+      <c r="AR26" t="inlineStr">
         <is>
           <t>기타 서비스</t>
         </is>
       </c>
-      <c r="AE26" t="inlineStr">
+      <c r="AS26" t="inlineStr">
         <is>
           <t>미용</t>
         </is>
       </c>
-      <c r="AF26" t="inlineStr">
+      <c r="AT26" t="inlineStr">
         <is>
           <t>기타 소매업</t>
         </is>
       </c>
-      <c r="AG26" t="n">
+      <c r="AU26" t="n">
         <v>95099</v>
       </c>
-      <c r="AH26" t="n">
+      <c r="AV26" t="n">
         <v>54143</v>
       </c>
-      <c r="AI26" t="n">
+      <c r="AW26" t="n">
         <v>53864</v>
       </c>
-      <c r="AJ26" t="n">
+      <c r="AX26" t="n">
         <v>45157</v>
       </c>
-      <c r="AK26" t="n">
+      <c r="AY26" t="n">
         <v>37716</v>
       </c>
-      <c r="AL26" t="n">
-        <v>64</v>
-      </c>
-      <c r="AM26" t="n">
-        <v>10</v>
-      </c>
-      <c r="AN26" t="n">
-        <v>8</v>
-      </c>
-      <c r="AO26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP26" t="n">
-        <v>8</v>
-      </c>
-      <c r="AQ26" t="n">
-        <v>3</v>
-      </c>
-      <c r="AR26" t="n">
-        <v>4</v>
+      <c r="AZ26" t="n">
+        <v>97</v>
+      </c>
+      <c r="BA26" t="n">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
